--- a/allBLUPsDF_BOTH.xlsx
+++ b/allBLUPsDF_BOTH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="0" windowWidth="23060" windowHeight="14120" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="940" yWindow="0" windowWidth="23060" windowHeight="14120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="allBLUPsDF_BOTH.csv" sheetId="1" r:id="rId1"/>
@@ -11650,11 +11650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M847"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M847"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11705,7 +11704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -11746,7 +11745,7 @@
         <v>0.31997724856641002</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -11787,7 +11786,7 @@
         <v>0.71833309452356897</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -11828,7 +11827,7 @@
         <v>0.116375148401319</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -11869,7 +11868,7 @@
         <v>0.71096804249474699</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -11910,7 +11909,7 @@
         <v>3.4816455296117502E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -11951,7 +11950,7 @@
         <v>2.1916788741039701E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -11992,7 +11991,7 @@
         <v>5.8066361413891002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -12033,7 +12032,7 @@
         <v>-5.3912297285710502E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -12074,7 +12073,7 @@
         <v>-0.104082990113989</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -12115,7 +12114,7 @@
         <v>-0.19583878299542401</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -12156,7 +12155,7 @@
         <v>0.25017461313756001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -12197,7 +12196,7 @@
         <v>0.21171313573923001</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -12238,7 +12237,7 @@
         <v>0.19472461138552499</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -12279,7 +12278,7 @@
         <v>0.1774519680595</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -12320,7 +12319,7 @@
         <v>2.5507614079564901E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -12361,7 +12360,7 @@
         <v>9.2087309620345094E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -12402,7 +12401,7 @@
         <v>0.17245805601417299</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -12443,7 +12442,7 @@
         <v>0.114430369858327</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -12484,7 +12483,7 @@
         <v>0.121191077499817</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -12525,7 +12524,7 @@
         <v>0.12300868940545701</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -12566,7 +12565,7 @@
         <v>8.6458791773011301E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -12607,7 +12606,7 @@
         <v>0.20755815474231401</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -12648,7 +12647,7 @@
         <v>0.122557789744107</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -12689,7 +12688,7 @@
         <v>8.3223765983925002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -12730,7 +12729,7 @@
         <v>9.9288021810871194E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -12771,7 +12770,7 @@
         <v>0.213923273546372</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -12812,7 +12811,7 @@
         <v>-0.173649144016538</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -12853,7 +12852,7 @@
         <v>-8.8084633788492905E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -12894,7 +12893,7 @@
         <v>-0.13518646869158399</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -12935,7 +12934,7 @@
         <v>-0.121308485906643</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -12976,7 +12975,7 @@
         <v>-9.29831231834643E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1">
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -13017,7 +13016,7 @@
         <v>-0.219158868635626</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1">
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -13058,7 +13057,7 @@
         <v>-0.15124210754544201</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1">
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -13099,7 +13098,7 @@
         <v>-0.15383632719143001</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1">
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -13140,7 +13139,7 @@
         <v>-8.3062119006499499E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1">
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -13181,7 +13180,7 @@
         <v>-0.18957601697625401</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1">
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -13222,7 +13221,7 @@
         <v>-8.0973733155450894E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1">
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -13263,7 +13262,7 @@
         <v>-0.14252884562767301</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1">
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>87</v>
       </c>
@@ -13304,7 +13303,7 @@
         <v>-0.164542001122126</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1">
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>89</v>
       </c>
@@ -13345,7 +13344,7 @@
         <v>0.198709652431169</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>91</v>
       </c>
@@ -13386,7 +13385,7 @@
         <v>1.18496729610025</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1">
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -13427,7 +13426,7 @@
         <v>0.28241222176532099</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1">
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -13468,7 +13467,7 @@
         <v>-0.54623078975708494</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1">
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
         <v>97</v>
       </c>
@@ -13509,7 +13508,7 @@
         <v>0.14462879839124301</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1">
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -13550,7 +13549,7 @@
         <v>-3.3053572216032397E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1">
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
         <v>101</v>
       </c>
@@ -13591,7 +13590,7 @@
         <v>3.7289122600672998E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1">
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -13632,7 +13631,7 @@
         <v>0.19479923854366701</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1">
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
         <v>105</v>
       </c>
@@ -13673,7 +13672,7 @@
         <v>9.3017671814588903E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1">
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>107</v>
       </c>
@@ -13714,7 +13713,7 @@
         <v>0.39498965021490801</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1">
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>109</v>
       </c>
@@ -13755,7 +13754,7 @@
         <v>0.76659773727579095</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1">
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>111</v>
       </c>
@@ -13796,7 +13795,7 @@
         <v>7.1810232189615603E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1">
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -13837,7 +13836,7 @@
         <v>-0.21308307405378099</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1">
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
         <v>115</v>
       </c>
@@ -13878,7 +13877,7 @@
         <v>-9.9049943825335496E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1">
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
         <v>117</v>
       </c>
@@ -13919,7 +13918,7 @@
         <v>-0.32305463321335198</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1">
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
         <v>119</v>
       </c>
@@ -13960,7 +13959,7 @@
         <v>-6.1766594169211701E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1">
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
         <v>121</v>
       </c>
@@ -14001,7 +14000,7 @@
         <v>0.235769182250193</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1">
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
         <v>123</v>
       </c>
@@ -14042,7 +14041,7 @@
         <v>9.8924590522280101E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1">
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
         <v>125</v>
       </c>
@@ -14083,7 +14082,7 @@
         <v>4.7073742899472401E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1">
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
         <v>127</v>
       </c>
@@ -14124,7 +14123,7 @@
         <v>0.29962469658959601</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1">
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
         <v>129</v>
       </c>
@@ -14165,7 +14164,7 @@
         <v>-0.78600070418844403</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1">
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
         <v>131</v>
       </c>
@@ -14206,7 +14205,7 @@
         <v>0.54603818048508301</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1">
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
         <v>133</v>
       </c>
@@ -14247,7 +14246,7 @@
         <v>0.26196790902273498</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1">
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
         <v>135</v>
       </c>
@@ -14288,7 +14287,7 @@
         <v>0.47151167121715498</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1">
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
         <v>137</v>
       </c>
@@ -14329,7 +14328,7 @@
         <v>7.9219795928591297E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1">
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
         <v>139</v>
       </c>
@@ -14370,7 +14369,7 @@
         <v>0.315398626448953</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1">
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
         <v>141</v>
       </c>
@@ -14411,7 +14410,7 @@
         <v>-0.28899413339024699</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1">
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
         <v>143</v>
       </c>
@@ -14452,7 +14451,7 @@
         <v>-0.18297945915754801</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1">
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
         <v>145</v>
       </c>
@@ -14493,7 +14492,7 @@
         <v>-0.36790925564105198</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1">
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
         <v>147</v>
       </c>
@@ -14534,7 +14533,7 @@
         <v>-0.24755102565357801</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1">
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
         <v>149</v>
       </c>
@@ -14575,7 +14574,7 @@
         <v>-0.14389766392575801</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1">
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
         <v>151</v>
       </c>
@@ -14616,7 +14615,7 @@
         <v>-0.18847643922861099</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1">
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
         <v>153</v>
       </c>
@@ -14657,7 +14656,7 @@
         <v>-0.267275767426363</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1">
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
         <v>155</v>
       </c>
@@ -14698,7 +14697,7 @@
         <v>-0.19445022952586999</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1">
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
         <v>157</v>
       </c>
@@ -14739,7 +14738,7 @@
         <v>-0.52541072013369094</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1">
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
         <v>159</v>
       </c>
@@ -14780,7 +14779,7 @@
         <v>-0.80529731294921503</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1">
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
         <v>161</v>
       </c>
@@ -14821,7 +14820,7 @@
         <v>-0.31419885157566402</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1">
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
         <v>163</v>
       </c>
@@ -14862,7 +14861,7 @@
         <v>-0.16199429622393</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1">
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
         <v>165</v>
       </c>
@@ -14903,7 +14902,7 @@
         <v>-0.22162992615784799</v>
       </c>
     </row>
-    <row r="80" spans="1:13" hidden="1">
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
         <v>167</v>
       </c>
@@ -14944,7 +14943,7 @@
         <v>-3.0813719525396199E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1">
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
         <v>169</v>
       </c>
@@ -14985,7 +14984,7 @@
         <v>0.34509028440915501</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1">
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
         <v>171</v>
       </c>
@@ -15026,7 +15025,7 @@
         <v>3.78100606634134E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1">
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
         <v>173</v>
       </c>
@@ -15067,7 +15066,7 @@
         <v>-0.26801804168378102</v>
       </c>
     </row>
-    <row r="84" spans="1:13" hidden="1">
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
         <v>175</v>
       </c>
@@ -15108,7 +15107,7 @@
         <v>-5.2186438847752599E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1">
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
         <v>177</v>
       </c>
@@ -15149,7 +15148,7 @@
         <v>1.8592066534991701E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:13" hidden="1">
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
         <v>179</v>
       </c>
@@ -15190,7 +15189,7 @@
         <v>0.12884144337419501</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1">
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
         <v>181</v>
       </c>
@@ -15231,7 +15230,7 @@
         <v>0.62196111782363905</v>
       </c>
     </row>
-    <row r="88" spans="1:13" hidden="1">
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
         <v>183</v>
       </c>
@@ -15272,7 +15271,7 @@
         <v>6.5468404492108695E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1">
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
         <v>185</v>
       </c>
@@ -15313,7 +15312,7 @@
         <v>5.9408851342775501E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:13" hidden="1">
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
         <v>187</v>
       </c>
@@ -15354,7 +15353,7 @@
         <v>7.7169889063236394E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1">
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
         <v>189</v>
       </c>
@@ -15395,7 +15394,7 @@
         <v>3.6798551114670897E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1">
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
         <v>191</v>
       </c>
@@ -15436,7 +15435,7 @@
         <v>-5.3127997626550197E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1">
+    <row r="93" spans="1:13">
       <c r="A93" t="s">
         <v>193</v>
       </c>
@@ -15477,7 +15476,7 @@
         <v>7.1936903342538799E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1">
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
         <v>195</v>
       </c>
@@ -15518,7 +15517,7 @@
         <v>0.15644414823060801</v>
       </c>
     </row>
-    <row r="95" spans="1:13" hidden="1">
+    <row r="95" spans="1:13">
       <c r="A95" t="s">
         <v>197</v>
       </c>
@@ -15559,7 +15558,7 @@
         <v>8.6565758509760796E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:13" hidden="1">
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
         <v>199</v>
       </c>
@@ -15600,7 +15599,7 @@
         <v>8.7073030955596598E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:13" hidden="1">
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
         <v>201</v>
       </c>
@@ -15641,7 +15640,7 @@
         <v>5.19977021879535E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:13" hidden="1">
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
         <v>203</v>
       </c>
@@ -15682,7 +15681,7 @@
         <v>-9.0282219695539706E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:13" hidden="1">
+    <row r="99" spans="1:13">
       <c r="A99" t="s">
         <v>205</v>
       </c>
@@ -15723,7 +15722,7 @@
         <v>-3.7278924565084998E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:13" hidden="1">
+    <row r="100" spans="1:13">
       <c r="A100" t="s">
         <v>207</v>
       </c>
@@ -15764,7 +15763,7 @@
         <v>-0.123363870378931</v>
       </c>
     </row>
-    <row r="101" spans="1:13" hidden="1">
+    <row r="101" spans="1:13">
       <c r="A101" t="s">
         <v>209</v>
       </c>
@@ -15805,7 +15804,7 @@
         <v>-0.14780675172982999</v>
       </c>
     </row>
-    <row r="102" spans="1:13" hidden="1">
+    <row r="102" spans="1:13">
       <c r="A102" t="s">
         <v>211</v>
       </c>
@@ -15846,7 +15845,7 @@
         <v>-0.15681282498385701</v>
       </c>
     </row>
-    <row r="103" spans="1:13" hidden="1">
+    <row r="103" spans="1:13">
       <c r="A103" t="s">
         <v>213</v>
       </c>
@@ -15887,7 +15886,7 @@
         <v>-0.112582293003246</v>
       </c>
     </row>
-    <row r="104" spans="1:13" hidden="1">
+    <row r="104" spans="1:13">
       <c r="A104" t="s">
         <v>215</v>
       </c>
@@ -15928,7 +15927,7 @@
         <v>-0.138970615716655</v>
       </c>
     </row>
-    <row r="105" spans="1:13" hidden="1">
+    <row r="105" spans="1:13">
       <c r="A105" t="s">
         <v>217</v>
       </c>
@@ -15969,7 +15968,7 @@
         <v>-0.118669027689118</v>
       </c>
     </row>
-    <row r="106" spans="1:13" hidden="1">
+    <row r="106" spans="1:13">
       <c r="A106" t="s">
         <v>219</v>
       </c>
@@ -16010,7 +16009,7 @@
         <v>-9.0740854135390903E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:13" hidden="1">
+    <row r="107" spans="1:13">
       <c r="A107" t="s">
         <v>221</v>
       </c>
@@ -16051,7 +16050,7 @@
         <v>-7.9050443429908093E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:13" hidden="1">
+    <row r="108" spans="1:13">
       <c r="A108" t="s">
         <v>223</v>
       </c>
@@ -16092,7 +16091,7 @@
         <v>-6.05149258597576E-4</v>
       </c>
     </row>
-    <row r="109" spans="1:13" hidden="1">
+    <row r="109" spans="1:13">
       <c r="A109" t="s">
         <v>225</v>
       </c>
@@ -16133,7 +16132,7 @@
         <v>-5.1945105694078397E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:13" hidden="1">
+    <row r="110" spans="1:13">
       <c r="A110" t="s">
         <v>227</v>
       </c>
@@ -16174,7 +16173,7 @@
         <v>-0.15666968901544101</v>
       </c>
     </row>
-    <row r="111" spans="1:13" hidden="1">
+    <row r="111" spans="1:13">
       <c r="A111" t="s">
         <v>229</v>
       </c>
@@ -16215,7 +16214,7 @@
         <v>-0.17105014804501401</v>
       </c>
     </row>
-    <row r="112" spans="1:13" hidden="1">
+    <row r="112" spans="1:13">
       <c r="A112" t="s">
         <v>231</v>
       </c>
@@ -16256,7 +16255,7 @@
         <v>-0.13746947377518301</v>
       </c>
     </row>
-    <row r="113" spans="1:13" hidden="1">
+    <row r="113" spans="1:13">
       <c r="A113" t="s">
         <v>233</v>
       </c>
@@ -16297,7 +16296,7 @@
         <v>-0.21455338913834801</v>
       </c>
     </row>
-    <row r="114" spans="1:13" hidden="1">
+    <row r="114" spans="1:13">
       <c r="A114" t="s">
         <v>235</v>
       </c>
@@ -16338,7 +16337,7 @@
         <v>-0.215336790854878</v>
       </c>
     </row>
-    <row r="115" spans="1:13" hidden="1">
+    <row r="115" spans="1:13">
       <c r="A115" t="s">
         <v>237</v>
       </c>
@@ -16379,7 +16378,7 @@
         <v>-7.1529906041921804E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:13" hidden="1">
+    <row r="116" spans="1:13">
       <c r="A116" t="s">
         <v>239</v>
       </c>
@@ -16420,7 +16419,7 @@
         <v>-0.115275559201203</v>
       </c>
     </row>
-    <row r="117" spans="1:13" hidden="1">
+    <row r="117" spans="1:13">
       <c r="A117" t="s">
         <v>241</v>
       </c>
@@ -16461,7 +16460,7 @@
         <v>-0.18895466665822</v>
       </c>
     </row>
-    <row r="118" spans="1:13" hidden="1">
+    <row r="118" spans="1:13">
       <c r="A118" t="s">
         <v>243</v>
       </c>
@@ -16502,7 +16501,7 @@
         <v>-7.1023900553475697E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:13" hidden="1">
+    <row r="119" spans="1:13">
       <c r="A119" t="s">
         <v>245</v>
       </c>
@@ -16543,7 +16542,7 @@
         <v>-0.14780580845921801</v>
       </c>
     </row>
-    <row r="120" spans="1:13" hidden="1">
+    <row r="120" spans="1:13">
       <c r="A120" t="s">
         <v>247</v>
       </c>
@@ -16584,7 +16583,7 @@
         <v>-4.2410924991187302E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:13" hidden="1">
+    <row r="121" spans="1:13">
       <c r="A121" t="s">
         <v>249</v>
       </c>
@@ -16625,7 +16624,7 @@
         <v>-0.122385426580847</v>
       </c>
     </row>
-    <row r="122" spans="1:13" hidden="1">
+    <row r="122" spans="1:13">
       <c r="A122" t="s">
         <v>251</v>
       </c>
@@ -16666,7 +16665,7 @@
         <v>-8.35859899467912E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:13" hidden="1">
+    <row r="123" spans="1:13">
       <c r="A123" t="s">
         <v>253</v>
       </c>
@@ -16707,7 +16706,7 @@
         <v>-4.7642377288604799E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:13" hidden="1">
+    <row r="124" spans="1:13">
       <c r="A124" t="s">
         <v>255</v>
       </c>
@@ -16748,7 +16747,7 @@
         <v>-6.1529231994393502E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:13" hidden="1">
+    <row r="125" spans="1:13">
       <c r="A125" t="s">
         <v>257</v>
       </c>
@@ -16789,7 +16788,7 @@
         <v>-6.3327464757302596E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:13" hidden="1">
+    <row r="126" spans="1:13">
       <c r="A126" t="s">
         <v>259</v>
       </c>
@@ -16830,7 +16829,7 @@
         <v>-0.106234098777963</v>
       </c>
     </row>
-    <row r="127" spans="1:13" hidden="1">
+    <row r="127" spans="1:13">
       <c r="A127" t="s">
         <v>261</v>
       </c>
@@ -16871,7 +16870,7 @@
         <v>-0.92237800295317196</v>
       </c>
     </row>
-    <row r="128" spans="1:13" hidden="1">
+    <row r="128" spans="1:13">
       <c r="A128" t="s">
         <v>263</v>
       </c>
@@ -16912,7 +16911,7 @@
         <v>-0.264763197309618</v>
       </c>
     </row>
-    <row r="129" spans="1:13" hidden="1">
+    <row r="129" spans="1:13">
       <c r="A129" t="s">
         <v>265</v>
       </c>
@@ -16953,7 +16952,7 @@
         <v>-0.525351347760316</v>
       </c>
     </row>
-    <row r="130" spans="1:13" hidden="1">
+    <row r="130" spans="1:13">
       <c r="A130" t="s">
         <v>267</v>
       </c>
@@ -16994,7 +16993,7 @@
         <v>0.26065628485112102</v>
       </c>
     </row>
-    <row r="131" spans="1:13" hidden="1">
+    <row r="131" spans="1:13">
       <c r="A131" t="s">
         <v>269</v>
       </c>
@@ -17035,7 +17034,7 @@
         <v>-0.64606985594250199</v>
       </c>
     </row>
-    <row r="132" spans="1:13" hidden="1">
+    <row r="132" spans="1:13">
       <c r="A132" t="s">
         <v>271</v>
       </c>
@@ -17076,7 +17075,7 @@
         <v>-5.9080005759927001E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:13" hidden="1">
+    <row r="133" spans="1:13">
       <c r="A133" t="s">
         <v>273</v>
       </c>
@@ -17117,7 +17116,7 @@
         <v>0.11285600766753499</v>
       </c>
     </row>
-    <row r="134" spans="1:13" hidden="1">
+    <row r="134" spans="1:13">
       <c r="A134" t="s">
         <v>275</v>
       </c>
@@ -17158,7 +17157,7 @@
         <v>-0.34104811024557902</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1">
+    <row r="135" spans="1:13">
       <c r="A135" t="s">
         <v>277</v>
       </c>
@@ -17199,7 +17198,7 @@
         <v>-0.19485232541817099</v>
       </c>
     </row>
-    <row r="136" spans="1:13" hidden="1">
+    <row r="136" spans="1:13">
       <c r="A136" t="s">
         <v>279</v>
       </c>
@@ -17240,7 +17239,7 @@
         <v>-0.113111489514788</v>
       </c>
     </row>
-    <row r="137" spans="1:13" hidden="1">
+    <row r="137" spans="1:13">
       <c r="A137" t="s">
         <v>281</v>
       </c>
@@ -17281,7 +17280,7 @@
         <v>6.9133588162706802E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:13" hidden="1">
+    <row r="138" spans="1:13">
       <c r="A138" t="s">
         <v>283</v>
       </c>
@@ -17322,7 +17321,7 @@
         <v>0.40121287259836402</v>
       </c>
     </row>
-    <row r="139" spans="1:13" hidden="1">
+    <row r="139" spans="1:13">
       <c r="A139" t="s">
         <v>285</v>
       </c>
@@ -17363,7 +17362,7 @@
         <v>5.8857112349124698E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:13" hidden="1">
+    <row r="140" spans="1:13">
       <c r="A140" t="s">
         <v>287</v>
       </c>
@@ -17404,7 +17403,7 @@
         <v>8.9026929523036299E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:13" hidden="1">
+    <row r="141" spans="1:13">
       <c r="A141" t="s">
         <v>289</v>
       </c>
@@ -17445,7 +17444,7 @@
         <v>-0.34839187725348197</v>
       </c>
     </row>
-    <row r="142" spans="1:13" hidden="1">
+    <row r="142" spans="1:13">
       <c r="A142" t="s">
         <v>291</v>
       </c>
@@ -17486,7 +17485,7 @@
         <v>0.24562138716912901</v>
       </c>
     </row>
-    <row r="143" spans="1:13" hidden="1">
+    <row r="143" spans="1:13">
       <c r="A143" t="s">
         <v>293</v>
       </c>
@@ -17527,7 +17526,7 @@
         <v>0.67508721063616195</v>
       </c>
     </row>
-    <row r="144" spans="1:13" hidden="1">
+    <row r="144" spans="1:13">
       <c r="A144" t="s">
         <v>295</v>
       </c>
@@ -17568,7 +17567,7 @@
         <v>0.11981960707346501</v>
       </c>
     </row>
-    <row r="145" spans="1:13" hidden="1">
+    <row r="145" spans="1:13">
       <c r="A145" t="s">
         <v>297</v>
       </c>
@@ -17609,7 +17608,7 @@
         <v>0.296336446036986</v>
       </c>
     </row>
-    <row r="146" spans="1:13" hidden="1">
+    <row r="146" spans="1:13">
       <c r="A146" t="s">
         <v>299</v>
       </c>
@@ -17650,7 +17649,7 @@
         <v>0.16835449500498401</v>
       </c>
     </row>
-    <row r="147" spans="1:13" hidden="1">
+    <row r="147" spans="1:13">
       <c r="A147" t="s">
         <v>301</v>
       </c>
@@ -17691,7 +17690,7 @@
         <v>-3.5056760017548101E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:13" hidden="1">
+    <row r="148" spans="1:13">
       <c r="A148" t="s">
         <v>303</v>
       </c>
@@ -17732,7 +17731,7 @@
         <v>-0.41640614971335699</v>
       </c>
     </row>
-    <row r="149" spans="1:13" hidden="1">
+    <row r="149" spans="1:13">
       <c r="A149" t="s">
         <v>305</v>
       </c>
@@ -17773,7 +17772,7 @@
         <v>0.45607965839873799</v>
       </c>
     </row>
-    <row r="150" spans="1:13" hidden="1">
+    <row r="150" spans="1:13">
       <c r="A150" t="s">
         <v>307</v>
       </c>
@@ -17814,7 +17813,7 @@
         <v>-0.584705807923527</v>
       </c>
     </row>
-    <row r="151" spans="1:13" hidden="1">
+    <row r="151" spans="1:13">
       <c r="A151" t="s">
         <v>309</v>
       </c>
@@ -17855,7 +17854,7 @@
         <v>0.31097203692102798</v>
       </c>
     </row>
-    <row r="152" spans="1:13" hidden="1">
+    <row r="152" spans="1:13">
       <c r="A152" t="s">
         <v>311</v>
       </c>
@@ -17896,7 +17895,7 @@
         <v>-0.572633825147987</v>
       </c>
     </row>
-    <row r="153" spans="1:13" hidden="1">
+    <row r="153" spans="1:13">
       <c r="A153" t="s">
         <v>313</v>
       </c>
@@ -17937,7 +17936,7 @@
         <v>-0.231162828198507</v>
       </c>
     </row>
-    <row r="154" spans="1:13" hidden="1">
+    <row r="154" spans="1:13">
       <c r="A154" t="s">
         <v>315</v>
       </c>
@@ -17978,7 +17977,7 @@
         <v>0.30629329237434599</v>
       </c>
     </row>
-    <row r="155" spans="1:13" hidden="1">
+    <row r="155" spans="1:13">
       <c r="A155" t="s">
         <v>317</v>
       </c>
@@ -18019,7 +18018,7 @@
         <v>-0.16054004304706701</v>
       </c>
     </row>
-    <row r="156" spans="1:13" hidden="1">
+    <row r="156" spans="1:13">
       <c r="A156" t="s">
         <v>319</v>
       </c>
@@ -18060,7 +18059,7 @@
         <v>0.521098937148889</v>
       </c>
     </row>
-    <row r="157" spans="1:13" hidden="1">
+    <row r="157" spans="1:13">
       <c r="A157" t="s">
         <v>321</v>
       </c>
@@ -18101,7 +18100,7 @@
         <v>-1.33227743886447</v>
       </c>
     </row>
-    <row r="158" spans="1:13" hidden="1">
+    <row r="158" spans="1:13">
       <c r="A158" t="s">
         <v>323</v>
       </c>
@@ -18142,7 +18141,7 @@
         <v>-1.0109462916841101</v>
       </c>
     </row>
-    <row r="159" spans="1:13" hidden="1">
+    <row r="159" spans="1:13">
       <c r="A159" t="s">
         <v>325</v>
       </c>
@@ -18183,7 +18182,7 @@
         <v>-0.83576937602601398</v>
       </c>
     </row>
-    <row r="160" spans="1:13" hidden="1">
+    <row r="160" spans="1:13">
       <c r="A160" t="s">
         <v>327</v>
       </c>
@@ -18224,7 +18223,7 @@
         <v>1.04233175885873</v>
       </c>
     </row>
-    <row r="161" spans="1:13" hidden="1">
+    <row r="161" spans="1:13">
       <c r="A161" t="s">
         <v>329</v>
       </c>
@@ -18265,7 +18264,7 @@
         <v>6.0115395135196599E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:13" hidden="1">
+    <row r="162" spans="1:13">
       <c r="A162" t="s">
         <v>331</v>
       </c>
@@ -18306,7 +18305,7 @@
         <v>-0.27154730661100901</v>
       </c>
     </row>
-    <row r="163" spans="1:13" hidden="1">
+    <row r="163" spans="1:13">
       <c r="A163" t="s">
         <v>333</v>
       </c>
@@ -18347,7 +18346,7 @@
         <v>0.60434995611854903</v>
       </c>
     </row>
-    <row r="164" spans="1:13" hidden="1">
+    <row r="164" spans="1:13">
       <c r="A164" t="s">
         <v>335</v>
       </c>
@@ -18388,7 +18387,7 @@
         <v>-0.57848200939294603</v>
       </c>
     </row>
-    <row r="165" spans="1:13" hidden="1">
+    <row r="165" spans="1:13">
       <c r="A165" t="s">
         <v>337</v>
       </c>
@@ -18429,7 +18428,7 @@
         <v>2.71637210684911E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:13" hidden="1">
+    <row r="166" spans="1:13">
       <c r="A166" t="s">
         <v>339</v>
       </c>
@@ -18470,7 +18469,7 @@
         <v>-1.0898113560731699</v>
       </c>
     </row>
-    <row r="167" spans="1:13" hidden="1">
+    <row r="167" spans="1:13">
       <c r="A167" t="s">
         <v>341</v>
       </c>
@@ -18511,7 +18510,7 @@
         <v>0.53233707580444201</v>
       </c>
     </row>
-    <row r="168" spans="1:13" hidden="1">
+    <row r="168" spans="1:13">
       <c r="A168" t="s">
         <v>343</v>
       </c>
@@ -18552,7 +18551,7 @@
         <v>-0.462381289455502</v>
       </c>
     </row>
-    <row r="169" spans="1:13" hidden="1">
+    <row r="169" spans="1:13">
       <c r="A169" t="s">
         <v>345</v>
       </c>
@@ -18593,7 +18592,7 @@
         <v>0.17159663668431599</v>
       </c>
     </row>
-    <row r="170" spans="1:13" hidden="1">
+    <row r="170" spans="1:13">
       <c r="A170" t="s">
         <v>347</v>
       </c>
@@ -18634,7 +18633,7 @@
         <v>0.12474328533744899</v>
       </c>
     </row>
-    <row r="171" spans="1:13" hidden="1">
+    <row r="171" spans="1:13">
       <c r="A171" t="s">
         <v>349</v>
       </c>
@@ -18675,7 +18674,7 @@
         <v>-0.62737643334306203</v>
       </c>
     </row>
-    <row r="172" spans="1:13" hidden="1">
+    <row r="172" spans="1:13">
       <c r="A172" t="s">
         <v>351</v>
       </c>
@@ -18716,7 +18715,7 @@
         <v>-0.90292162605014303</v>
       </c>
     </row>
-    <row r="173" spans="1:13" hidden="1">
+    <row r="173" spans="1:13">
       <c r="A173" t="s">
         <v>353</v>
       </c>
@@ -18757,7 +18756,7 @@
         <v>-0.125730524693177</v>
       </c>
     </row>
-    <row r="174" spans="1:13" hidden="1">
+    <row r="174" spans="1:13">
       <c r="A174" t="s">
         <v>355</v>
       </c>
@@ -18798,7 +18797,7 @@
         <v>-0.125700820570185</v>
       </c>
     </row>
-    <row r="175" spans="1:13" hidden="1">
+    <row r="175" spans="1:13">
       <c r="A175" t="s">
         <v>357</v>
       </c>
@@ -18839,7 +18838,7 @@
         <v>-0.97942949092415899</v>
       </c>
     </row>
-    <row r="176" spans="1:13" hidden="1">
+    <row r="176" spans="1:13">
       <c r="A176" t="s">
         <v>359</v>
       </c>
@@ -18880,7 +18879,7 @@
         <v>-0.85029148818150901</v>
       </c>
     </row>
-    <row r="177" spans="1:13" hidden="1">
+    <row r="177" spans="1:13">
       <c r="A177" t="s">
         <v>361</v>
       </c>
@@ -18921,7 +18920,7 @@
         <v>0.24220248035235301</v>
       </c>
     </row>
-    <row r="178" spans="1:13" hidden="1">
+    <row r="178" spans="1:13">
       <c r="A178" t="s">
         <v>363</v>
       </c>
@@ -18962,7 +18961,7 @@
         <v>-0.20918557997034801</v>
       </c>
     </row>
-    <row r="179" spans="1:13" hidden="1">
+    <row r="179" spans="1:13">
       <c r="A179" t="s">
         <v>365</v>
       </c>
@@ -19003,7 +19002,7 @@
         <v>-1.4185111832788599</v>
       </c>
     </row>
-    <row r="180" spans="1:13" hidden="1">
+    <row r="180" spans="1:13">
       <c r="A180" t="s">
         <v>367</v>
       </c>
@@ -19044,7 +19043,7 @@
         <v>0.14013529478015499</v>
       </c>
     </row>
-    <row r="181" spans="1:13" hidden="1">
+    <row r="181" spans="1:13">
       <c r="A181" t="s">
         <v>369</v>
       </c>
@@ -19085,7 +19084,7 @@
         <v>-0.80599243650503805</v>
       </c>
     </row>
-    <row r="182" spans="1:13" hidden="1">
+    <row r="182" spans="1:13">
       <c r="A182" t="s">
         <v>371</v>
       </c>
@@ -19126,7 +19125,7 @@
         <v>1.0822150118127101</v>
       </c>
     </row>
-    <row r="183" spans="1:13" hidden="1">
+    <row r="183" spans="1:13">
       <c r="A183" t="s">
         <v>373</v>
       </c>
@@ -19167,7 +19166,7 @@
         <v>-1.26707276449826</v>
       </c>
     </row>
-    <row r="184" spans="1:13" hidden="1">
+    <row r="184" spans="1:13">
       <c r="A184" t="s">
         <v>375</v>
       </c>
@@ -19208,7 +19207,7 @@
         <v>0.85034227168240095</v>
       </c>
     </row>
-    <row r="185" spans="1:13" hidden="1">
+    <row r="185" spans="1:13">
       <c r="A185" t="s">
         <v>377</v>
       </c>
@@ -19249,7 +19248,7 @@
         <v>-2.8939869127960201</v>
       </c>
     </row>
-    <row r="186" spans="1:13" hidden="1">
+    <row r="186" spans="1:13">
       <c r="A186" t="s">
         <v>379</v>
       </c>
@@ -19290,7 +19289,7 @@
         <v>0.22571201533507099</v>
       </c>
     </row>
-    <row r="187" spans="1:13" hidden="1">
+    <row r="187" spans="1:13">
       <c r="A187" t="s">
         <v>381</v>
       </c>
@@ -19331,7 +19330,7 @@
         <v>-6.3681037812565996E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:13" hidden="1">
+    <row r="188" spans="1:13">
       <c r="A188" t="s">
         <v>383</v>
       </c>
@@ -19372,7 +19371,7 @@
         <v>-0.43677069522804401</v>
       </c>
     </row>
-    <row r="189" spans="1:13" hidden="1">
+    <row r="189" spans="1:13">
       <c r="A189" t="s">
         <v>385</v>
       </c>
@@ -19413,7 +19412,7 @@
         <v>0.32374061873617399</v>
       </c>
     </row>
-    <row r="190" spans="1:13" hidden="1">
+    <row r="190" spans="1:13">
       <c r="A190" t="s">
         <v>387</v>
       </c>
@@ -19454,7 +19453,7 @@
         <v>0.39375933343200298</v>
       </c>
     </row>
-    <row r="191" spans="1:13" hidden="1">
+    <row r="191" spans="1:13">
       <c r="A191" t="s">
         <v>389</v>
       </c>
@@ -19495,7 +19494,7 @@
         <v>0.21017096463944801</v>
       </c>
     </row>
-    <row r="192" spans="1:13" hidden="1">
+    <row r="192" spans="1:13">
       <c r="A192" t="s">
         <v>391</v>
       </c>
@@ -19536,7 +19535,7 @@
         <v>-0.23715843894918001</v>
       </c>
     </row>
-    <row r="193" spans="1:13" hidden="1">
+    <row r="193" spans="1:13">
       <c r="A193" t="s">
         <v>393</v>
       </c>
@@ -19577,7 +19576,7 @@
         <v>-1.9735292097750301</v>
       </c>
     </row>
-    <row r="194" spans="1:13" hidden="1">
+    <row r="194" spans="1:13">
       <c r="A194" t="s">
         <v>395</v>
       </c>
@@ -19618,7 +19617,7 @@
         <v>0.51120315525025395</v>
       </c>
     </row>
-    <row r="195" spans="1:13" hidden="1">
+    <row r="195" spans="1:13">
       <c r="A195" t="s">
         <v>397</v>
       </c>
@@ -19659,7 +19658,7 @@
         <v>-0.15353335799799001</v>
       </c>
     </row>
-    <row r="196" spans="1:13" hidden="1">
+    <row r="196" spans="1:13">
       <c r="A196" t="s">
         <v>399</v>
       </c>
@@ -19700,7 +19699,7 @@
         <v>0.73177740832915605</v>
       </c>
     </row>
-    <row r="197" spans="1:13" hidden="1">
+    <row r="197" spans="1:13">
       <c r="A197" t="s">
         <v>401</v>
       </c>
@@ -19741,7 +19740,7 @@
         <v>0.51934931225679404</v>
       </c>
     </row>
-    <row r="198" spans="1:13" hidden="1">
+    <row r="198" spans="1:13">
       <c r="A198" t="s">
         <v>403</v>
       </c>
@@ -19782,7 +19781,7 @@
         <v>4.5794126340474403E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:13" hidden="1">
+    <row r="199" spans="1:13">
       <c r="A199" t="s">
         <v>405</v>
       </c>
@@ -19823,7 +19822,7 @@
         <v>9.7145303486864995E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:13" hidden="1">
+    <row r="200" spans="1:13">
       <c r="A200" t="s">
         <v>407</v>
       </c>
@@ -19864,7 +19863,7 @@
         <v>1.03814211679836</v>
       </c>
     </row>
-    <row r="201" spans="1:13" hidden="1">
+    <row r="201" spans="1:13">
       <c r="A201" t="s">
         <v>409</v>
       </c>
@@ -19905,7 +19904,7 @@
         <v>0.82486401044898505</v>
       </c>
     </row>
-    <row r="202" spans="1:13" hidden="1">
+    <row r="202" spans="1:13">
       <c r="A202" t="s">
         <v>411</v>
       </c>
@@ -19946,7 +19945,7 @@
         <v>0.39645869677061901</v>
       </c>
     </row>
-    <row r="203" spans="1:13" hidden="1">
+    <row r="203" spans="1:13">
       <c r="A203" t="s">
         <v>413</v>
       </c>
@@ -19987,7 +19986,7 @@
         <v>1.0090077118973499</v>
       </c>
     </row>
-    <row r="204" spans="1:13" hidden="1">
+    <row r="204" spans="1:13">
       <c r="A204" t="s">
         <v>415</v>
       </c>
@@ -20028,7 +20027,7 @@
         <v>0.25277881612296299</v>
       </c>
     </row>
-    <row r="205" spans="1:13" hidden="1">
+    <row r="205" spans="1:13">
       <c r="A205" t="s">
         <v>417</v>
       </c>
@@ -20069,7 +20068,7 @@
         <v>-3.3664078018748</v>
       </c>
     </row>
-    <row r="206" spans="1:13" hidden="1">
+    <row r="206" spans="1:13">
       <c r="A206" t="s">
         <v>419</v>
       </c>
@@ -20110,7 +20109,7 @@
         <v>0.62924669707129</v>
       </c>
     </row>
-    <row r="207" spans="1:13" hidden="1">
+    <row r="207" spans="1:13">
       <c r="A207" t="s">
         <v>421</v>
       </c>
@@ -20151,7 +20150,7 @@
         <v>-0.60756469891264897</v>
       </c>
     </row>
-    <row r="208" spans="1:13" hidden="1">
+    <row r="208" spans="1:13">
       <c r="A208" t="s">
         <v>423</v>
       </c>
@@ -20192,7 +20191,7 @@
         <v>-0.37479167374522898</v>
       </c>
     </row>
-    <row r="209" spans="1:13" hidden="1">
+    <row r="209" spans="1:13">
       <c r="A209" t="s">
         <v>425</v>
       </c>
@@ -20233,7 +20232,7 @@
         <v>-0.76615176723237099</v>
       </c>
     </row>
-    <row r="210" spans="1:13" hidden="1">
+    <row r="210" spans="1:13">
       <c r="A210" t="s">
         <v>427</v>
       </c>
@@ -20274,7 +20273,7 @@
         <v>-0.32440043493755</v>
       </c>
     </row>
-    <row r="211" spans="1:13" hidden="1">
+    <row r="211" spans="1:13">
       <c r="A211" t="s">
         <v>429</v>
       </c>
@@ -20315,7 +20314,7 @@
         <v>0.19673755055387299</v>
       </c>
     </row>
-    <row r="212" spans="1:13" hidden="1">
+    <row r="212" spans="1:13">
       <c r="A212" t="s">
         <v>431</v>
       </c>
@@ -20356,7 +20355,7 @@
         <v>-0.58104477639520102</v>
       </c>
     </row>
-    <row r="213" spans="1:13" hidden="1">
+    <row r="213" spans="1:13">
       <c r="A213" t="s">
         <v>433</v>
       </c>
@@ -20397,7 +20396,7 @@
         <v>1.0688989380354501</v>
       </c>
     </row>
-    <row r="214" spans="1:13" hidden="1">
+    <row r="214" spans="1:13">
       <c r="A214" t="s">
         <v>435</v>
       </c>
@@ -20438,7 +20437,7 @@
         <v>0.65674113548115698</v>
       </c>
     </row>
-    <row r="215" spans="1:13" hidden="1">
+    <row r="215" spans="1:13">
       <c r="A215" t="s">
         <v>437</v>
       </c>
@@ -20479,7 +20478,7 @@
         <v>-0.50915604602630704</v>
       </c>
     </row>
-    <row r="216" spans="1:13" hidden="1">
+    <row r="216" spans="1:13">
       <c r="A216" t="s">
         <v>439</v>
       </c>
@@ -20520,7 +20519,7 @@
         <v>-0.471297016324153</v>
       </c>
     </row>
-    <row r="217" spans="1:13" hidden="1">
+    <row r="217" spans="1:13">
       <c r="A217" t="s">
         <v>441</v>
       </c>
@@ -20561,7 +20560,7 @@
         <v>-1.3686392818545601</v>
       </c>
     </row>
-    <row r="218" spans="1:13" hidden="1">
+    <row r="218" spans="1:13">
       <c r="A218" t="s">
         <v>443</v>
       </c>
@@ -20602,7 +20601,7 @@
         <v>0.597640221116986</v>
       </c>
     </row>
-    <row r="219" spans="1:13" hidden="1">
+    <row r="219" spans="1:13">
       <c r="A219" t="s">
         <v>445</v>
       </c>
@@ -20643,7 +20642,7 @@
         <v>-1.0678892600504799</v>
       </c>
     </row>
-    <row r="220" spans="1:13" hidden="1">
+    <row r="220" spans="1:13">
       <c r="A220" t="s">
         <v>447</v>
       </c>
@@ -20684,7 +20683,7 @@
         <v>0.69160123951169505</v>
       </c>
     </row>
-    <row r="221" spans="1:13" hidden="1">
+    <row r="221" spans="1:13">
       <c r="A221" t="s">
         <v>449</v>
       </c>
@@ -20725,7 +20724,7 @@
         <v>-1.0352105166924199</v>
       </c>
     </row>
-    <row r="222" spans="1:13" hidden="1">
+    <row r="222" spans="1:13">
       <c r="A222" t="s">
         <v>451</v>
       </c>
@@ -20766,7 +20765,7 @@
         <v>0.714996519137575</v>
       </c>
     </row>
-    <row r="223" spans="1:13" hidden="1">
+    <row r="223" spans="1:13">
       <c r="A223" t="s">
         <v>453</v>
       </c>
@@ -20807,7 +20806,7 @@
         <v>0.57146762677669005</v>
       </c>
     </row>
-    <row r="224" spans="1:13" hidden="1">
+    <row r="224" spans="1:13">
       <c r="A224" t="s">
         <v>455</v>
       </c>
@@ -20848,7 +20847,7 @@
         <v>1.5240429179835699</v>
       </c>
     </row>
-    <row r="225" spans="1:13" hidden="1">
+    <row r="225" spans="1:13">
       <c r="A225" t="s">
         <v>457</v>
       </c>
@@ -20889,7 +20888,7 @@
         <v>-2.7667280552183902E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:13" hidden="1">
+    <row r="226" spans="1:13">
       <c r="A226" t="s">
         <v>459</v>
       </c>
@@ -20930,7 +20929,7 @@
         <v>-1.11274843290182</v>
       </c>
     </row>
-    <row r="227" spans="1:13" hidden="1">
+    <row r="227" spans="1:13">
       <c r="A227" t="s">
         <v>461</v>
       </c>
@@ -20971,7 +20970,7 @@
         <v>1.15274936831723E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:13" hidden="1">
+    <row r="228" spans="1:13">
       <c r="A228" t="s">
         <v>463</v>
       </c>
@@ -21012,7 +21011,7 @@
         <v>-0.86836558283395304</v>
       </c>
     </row>
-    <row r="229" spans="1:13" hidden="1">
+    <row r="229" spans="1:13">
       <c r="A229" t="s">
         <v>465</v>
       </c>
@@ -21053,7 +21052,7 @@
         <v>-0.37095893902765598</v>
       </c>
     </row>
-    <row r="230" spans="1:13" hidden="1">
+    <row r="230" spans="1:13">
       <c r="A230" t="s">
         <v>467</v>
       </c>
@@ -21094,7 +21093,7 @@
         <v>0.90386087596226805</v>
       </c>
     </row>
-    <row r="231" spans="1:13" hidden="1">
+    <row r="231" spans="1:13">
       <c r="A231" t="s">
         <v>469</v>
       </c>
@@ -21135,7 +21134,7 @@
         <v>0.492948779283224</v>
       </c>
     </row>
-    <row r="232" spans="1:13" hidden="1">
+    <row r="232" spans="1:13">
       <c r="A232" t="s">
         <v>471</v>
       </c>
@@ -21176,7 +21175,7 @@
         <v>0.92927797154151603</v>
       </c>
     </row>
-    <row r="233" spans="1:13" hidden="1">
+    <row r="233" spans="1:13">
       <c r="A233" t="s">
         <v>473</v>
       </c>
@@ -21217,7 +21216,7 @@
         <v>-3.70920999706962E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:13" hidden="1">
+    <row r="234" spans="1:13">
       <c r="A234" t="s">
         <v>475</v>
       </c>
@@ -21258,7 +21257,7 @@
         <v>-0.59663931132649295</v>
       </c>
     </row>
-    <row r="235" spans="1:13" hidden="1">
+    <row r="235" spans="1:13">
       <c r="A235" t="s">
         <v>477</v>
       </c>
@@ -21299,7 +21298,7 @@
         <v>0.189081146936524</v>
       </c>
     </row>
-    <row r="236" spans="1:13" hidden="1">
+    <row r="236" spans="1:13">
       <c r="A236" t="s">
         <v>479</v>
       </c>
@@ -21340,7 +21339,7 @@
         <v>0.67139071938672701</v>
       </c>
     </row>
-    <row r="237" spans="1:13" hidden="1">
+    <row r="237" spans="1:13">
       <c r="A237" t="s">
         <v>481</v>
       </c>
@@ -21381,7 +21380,7 @@
         <v>0.49124277433825703</v>
       </c>
     </row>
-    <row r="238" spans="1:13" hidden="1">
+    <row r="238" spans="1:13">
       <c r="A238" t="s">
         <v>483</v>
       </c>
@@ -21422,7 +21421,7 @@
         <v>1.3501744212723199</v>
       </c>
     </row>
-    <row r="239" spans="1:13" hidden="1">
+    <row r="239" spans="1:13">
       <c r="A239" t="s">
         <v>485</v>
       </c>
@@ -21463,7 +21462,7 @@
         <v>0.43571766245966398</v>
       </c>
     </row>
-    <row r="240" spans="1:13" hidden="1">
+    <row r="240" spans="1:13">
       <c r="A240" t="s">
         <v>487</v>
       </c>
@@ -21504,7 +21503,7 @@
         <v>0.48785238231018502</v>
       </c>
     </row>
-    <row r="241" spans="1:13" hidden="1">
+    <row r="241" spans="1:13">
       <c r="A241" t="s">
         <v>489</v>
       </c>
@@ -21545,7 +21544,7 @@
         <v>-0.151025158578242</v>
       </c>
     </row>
-    <row r="242" spans="1:13" hidden="1">
+    <row r="242" spans="1:13">
       <c r="A242" t="s">
         <v>491</v>
       </c>
@@ -21586,7 +21585,7 @@
         <v>-0.84533149422419096</v>
       </c>
     </row>
-    <row r="243" spans="1:13" hidden="1">
+    <row r="243" spans="1:13">
       <c r="A243" t="s">
         <v>493</v>
       </c>
@@ -21627,7 +21626,7 @@
         <v>3.1939938636645501E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:13" hidden="1">
+    <row r="244" spans="1:13">
       <c r="A244" t="s">
         <v>495</v>
       </c>
@@ -21668,7 +21667,7 @@
         <v>-0.309517195092258</v>
       </c>
     </row>
-    <row r="245" spans="1:13" hidden="1">
+    <row r="245" spans="1:13">
       <c r="A245" t="s">
         <v>497</v>
       </c>
@@ -21709,7 +21708,7 @@
         <v>1.19550836555058</v>
       </c>
     </row>
-    <row r="246" spans="1:13" hidden="1">
+    <row r="246" spans="1:13">
       <c r="A246" t="s">
         <v>499</v>
       </c>
@@ -21750,7 +21749,7 @@
         <v>0.443372883347116</v>
       </c>
     </row>
-    <row r="247" spans="1:13" hidden="1">
+    <row r="247" spans="1:13">
       <c r="A247" t="s">
         <v>501</v>
       </c>
@@ -21791,7 +21790,7 @@
         <v>-0.36946188584708001</v>
       </c>
     </row>
-    <row r="248" spans="1:13" hidden="1">
+    <row r="248" spans="1:13">
       <c r="A248" t="s">
         <v>503</v>
       </c>
@@ -21832,7 +21831,7 @@
         <v>4.8354090281933701E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:13" hidden="1">
+    <row r="249" spans="1:13">
       <c r="A249" t="s">
         <v>505</v>
       </c>
@@ -21873,7 +21872,7 @@
         <v>-0.182609587779061</v>
       </c>
     </row>
-    <row r="250" spans="1:13" hidden="1">
+    <row r="250" spans="1:13">
       <c r="A250" t="s">
         <v>507</v>
       </c>
@@ -21914,7 +21913,7 @@
         <v>-0.63719893760094704</v>
       </c>
     </row>
-    <row r="251" spans="1:13" hidden="1">
+    <row r="251" spans="1:13">
       <c r="A251" t="s">
         <v>509</v>
       </c>
@@ -21955,7 +21954,7 @@
         <v>-1.12533665379586</v>
       </c>
     </row>
-    <row r="252" spans="1:13" hidden="1">
+    <row r="252" spans="1:13">
       <c r="A252" t="s">
         <v>511</v>
       </c>
@@ -21996,7 +21995,7 @@
         <v>0.49303307744772301</v>
       </c>
     </row>
-    <row r="253" spans="1:13" hidden="1">
+    <row r="253" spans="1:13">
       <c r="A253" t="s">
         <v>513</v>
       </c>
@@ -22037,7 +22036,7 @@
         <v>1.19113892744824</v>
       </c>
     </row>
-    <row r="254" spans="1:13" hidden="1">
+    <row r="254" spans="1:13">
       <c r="A254" t="s">
         <v>515</v>
       </c>
@@ -22078,7 +22077,7 @@
         <v>0.72328577638400304</v>
       </c>
     </row>
-    <row r="255" spans="1:13" hidden="1">
+    <row r="255" spans="1:13">
       <c r="A255" t="s">
         <v>517</v>
       </c>
@@ -22119,7 +22118,7 @@
         <v>-0.44870673438949898</v>
       </c>
     </row>
-    <row r="256" spans="1:13" hidden="1">
+    <row r="256" spans="1:13">
       <c r="A256" t="s">
         <v>519</v>
       </c>
@@ -22160,7 +22159,7 @@
         <v>-0.16150121621819599</v>
       </c>
     </row>
-    <row r="257" spans="1:13" hidden="1">
+    <row r="257" spans="1:13">
       <c r="A257" t="s">
         <v>521</v>
       </c>
@@ -22201,7 +22200,7 @@
         <v>-7.6990351359464401E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:13" hidden="1">
+    <row r="258" spans="1:13">
       <c r="A258" t="s">
         <v>523</v>
       </c>
@@ -22242,7 +22241,7 @@
         <v>0.122938796728189</v>
       </c>
     </row>
-    <row r="259" spans="1:13" hidden="1">
+    <row r="259" spans="1:13">
       <c r="A259" t="s">
         <v>525</v>
       </c>
@@ -22283,7 +22282,7 @@
         <v>-0.156700208199023</v>
       </c>
     </row>
-    <row r="260" spans="1:13" hidden="1">
+    <row r="260" spans="1:13">
       <c r="A260" t="s">
         <v>527</v>
       </c>
@@ -22324,7 +22323,7 @@
         <v>0.31775767058252702</v>
       </c>
     </row>
-    <row r="261" spans="1:13" hidden="1">
+    <row r="261" spans="1:13">
       <c r="A261" t="s">
         <v>529</v>
       </c>
@@ -22365,7 +22364,7 @@
         <v>-1.1478353016473899</v>
       </c>
     </row>
-    <row r="262" spans="1:13" hidden="1">
+    <row r="262" spans="1:13">
       <c r="A262" t="s">
         <v>531</v>
       </c>
@@ -22406,7 +22405,7 @@
         <v>0.271599830548859</v>
       </c>
     </row>
-    <row r="263" spans="1:13" hidden="1">
+    <row r="263" spans="1:13">
       <c r="A263" t="s">
         <v>533</v>
       </c>
@@ -22447,7 +22446,7 @@
         <v>-0.48905650038960802</v>
       </c>
     </row>
-    <row r="264" spans="1:13" hidden="1">
+    <row r="264" spans="1:13">
       <c r="A264" t="s">
         <v>535</v>
       </c>
@@ -22488,7 +22487,7 @@
         <v>0.83356529714345795</v>
       </c>
     </row>
-    <row r="265" spans="1:13" hidden="1">
+    <row r="265" spans="1:13">
       <c r="A265" t="s">
         <v>537</v>
       </c>
@@ -22529,7 +22528,7 @@
         <v>0.45956062330405101</v>
       </c>
     </row>
-    <row r="266" spans="1:13" hidden="1">
+    <row r="266" spans="1:13">
       <c r="A266" t="s">
         <v>539</v>
       </c>
@@ -22570,7 +22569,7 @@
         <v>-1.2990674203404999</v>
       </c>
     </row>
-    <row r="267" spans="1:13" hidden="1">
+    <row r="267" spans="1:13">
       <c r="A267" t="s">
         <v>541</v>
       </c>
@@ -22611,7 +22610,7 @@
         <v>8.2150541719559794E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:13" hidden="1">
+    <row r="268" spans="1:13">
       <c r="A268" t="s">
         <v>543</v>
       </c>
@@ -22652,7 +22651,7 @@
         <v>-0.113305323079001</v>
       </c>
     </row>
-    <row r="269" spans="1:13" hidden="1">
+    <row r="269" spans="1:13">
       <c r="A269" t="s">
         <v>545</v>
       </c>
@@ -22693,7 +22692,7 @@
         <v>0.63501132185419396</v>
       </c>
     </row>
-    <row r="270" spans="1:13" hidden="1">
+    <row r="270" spans="1:13">
       <c r="A270" t="s">
         <v>547</v>
       </c>
@@ -22734,7 +22733,7 @@
         <v>-0.214411097945921</v>
       </c>
     </row>
-    <row r="271" spans="1:13" hidden="1">
+    <row r="271" spans="1:13">
       <c r="A271" t="s">
         <v>549</v>
       </c>
@@ -22775,7 +22774,7 @@
         <v>0.13550515483482101</v>
       </c>
     </row>
-    <row r="272" spans="1:13" hidden="1">
+    <row r="272" spans="1:13">
       <c r="A272" t="s">
         <v>551</v>
       </c>
@@ -22816,7 +22815,7 @@
         <v>0.77635932891769299</v>
       </c>
     </row>
-    <row r="273" spans="1:13" hidden="1">
+    <row r="273" spans="1:13">
       <c r="A273" t="s">
         <v>553</v>
       </c>
@@ -22857,7 +22856,7 @@
         <v>1.74124192228188</v>
       </c>
     </row>
-    <row r="274" spans="1:13" hidden="1">
+    <row r="274" spans="1:13">
       <c r="A274" t="s">
         <v>555</v>
       </c>
@@ -22898,7 +22897,7 @@
         <v>1.6705163732761401</v>
       </c>
     </row>
-    <row r="275" spans="1:13" hidden="1">
+    <row r="275" spans="1:13">
       <c r="A275" t="s">
         <v>557</v>
       </c>
@@ -22939,7 +22938,7 @@
         <v>0.32977991484525199</v>
       </c>
     </row>
-    <row r="276" spans="1:13" hidden="1">
+    <row r="276" spans="1:13">
       <c r="A276" t="s">
         <v>559</v>
       </c>
@@ -22980,7 +22979,7 @@
         <v>0.60301418285283404</v>
       </c>
     </row>
-    <row r="277" spans="1:13" hidden="1">
+    <row r="277" spans="1:13">
       <c r="A277" t="s">
         <v>561</v>
       </c>
@@ -23021,7 +23020,7 @@
         <v>0.13905343679460899</v>
       </c>
     </row>
-    <row r="278" spans="1:13" hidden="1">
+    <row r="278" spans="1:13">
       <c r="A278" t="s">
         <v>563</v>
       </c>
@@ -23062,7 +23061,7 @@
         <v>-0.39770109899788397</v>
       </c>
     </row>
-    <row r="279" spans="1:13" hidden="1">
+    <row r="279" spans="1:13">
       <c r="A279" t="s">
         <v>565</v>
       </c>
@@ -23103,7 +23102,7 @@
         <v>1.1735648582104199</v>
       </c>
     </row>
-    <row r="280" spans="1:13" hidden="1">
+    <row r="280" spans="1:13">
       <c r="A280" t="s">
         <v>567</v>
       </c>
@@ -23144,7 +23143,7 @@
         <v>0.240698165003744</v>
       </c>
     </row>
-    <row r="281" spans="1:13" hidden="1">
+    <row r="281" spans="1:13">
       <c r="A281" t="s">
         <v>569</v>
       </c>
@@ -23185,7 +23184,7 @@
         <v>1.3596289673294799</v>
       </c>
     </row>
-    <row r="282" spans="1:13" hidden="1">
+    <row r="282" spans="1:13">
       <c r="A282" t="s">
         <v>571</v>
       </c>
@@ -23226,7 +23225,7 @@
         <v>0.98176141252784299</v>
       </c>
     </row>
-    <row r="283" spans="1:13" hidden="1">
+    <row r="283" spans="1:13">
       <c r="A283" t="s">
         <v>573</v>
       </c>
@@ -23267,7 +23266,7 @@
         <v>-0.75650945418840898</v>
       </c>
     </row>
-    <row r="284" spans="1:13" hidden="1">
+    <row r="284" spans="1:13">
       <c r="A284" t="s">
         <v>575</v>
       </c>
@@ -23308,7 +23307,7 @@
         <v>6.1205179181574303E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:13" hidden="1">
+    <row r="285" spans="1:13">
       <c r="A285" t="s">
         <v>577</v>
       </c>
@@ -23349,7 +23348,7 @@
         <v>-7.7049965622312894E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:13" hidden="1">
+    <row r="286" spans="1:13">
       <c r="A286" t="s">
         <v>579</v>
       </c>
@@ -23390,7 +23389,7 @@
         <v>0.264054675371312</v>
       </c>
     </row>
-    <row r="287" spans="1:13" hidden="1">
+    <row r="287" spans="1:13">
       <c r="A287" t="s">
         <v>581</v>
       </c>
@@ -23431,7 +23430,7 @@
         <v>-0.28403157510550597</v>
       </c>
     </row>
-    <row r="288" spans="1:13" hidden="1">
+    <row r="288" spans="1:13">
       <c r="A288" t="s">
         <v>583</v>
       </c>
@@ -23472,7 +23471,7 @@
         <v>-0.94180679668700396</v>
       </c>
     </row>
-    <row r="289" spans="1:13" hidden="1">
+    <row r="289" spans="1:13">
       <c r="A289" t="s">
         <v>585</v>
       </c>
@@ -23513,7 +23512,7 @@
         <v>0.66902589616268504</v>
       </c>
     </row>
-    <row r="290" spans="1:13" hidden="1">
+    <row r="290" spans="1:13">
       <c r="A290" t="s">
         <v>587</v>
       </c>
@@ -23554,7 +23553,7 @@
         <v>0.95926202241871406</v>
       </c>
     </row>
-    <row r="291" spans="1:13" hidden="1">
+    <row r="291" spans="1:13">
       <c r="A291" t="s">
         <v>589</v>
       </c>
@@ -23595,7 +23594,7 @@
         <v>-0.67449371272024705</v>
       </c>
     </row>
-    <row r="292" spans="1:13" hidden="1">
+    <row r="292" spans="1:13">
       <c r="A292" t="s">
         <v>591</v>
       </c>
@@ -23636,7 +23635,7 @@
         <v>-0.40837346638410998</v>
       </c>
     </row>
-    <row r="293" spans="1:13" hidden="1">
+    <row r="293" spans="1:13">
       <c r="A293" t="s">
         <v>593</v>
       </c>
@@ -23677,7 +23676,7 @@
         <v>0.46854715934486002</v>
       </c>
     </row>
-    <row r="294" spans="1:13" hidden="1">
+    <row r="294" spans="1:13">
       <c r="A294" t="s">
         <v>595</v>
       </c>
@@ -23718,7 +23717,7 @@
         <v>1.73452858357406</v>
       </c>
     </row>
-    <row r="295" spans="1:13" hidden="1">
+    <row r="295" spans="1:13">
       <c r="A295" t="s">
         <v>597</v>
       </c>
@@ -23759,7 +23758,7 @@
         <v>0.85870778251059798</v>
       </c>
     </row>
-    <row r="296" spans="1:13" hidden="1">
+    <row r="296" spans="1:13">
       <c r="A296" t="s">
         <v>599</v>
       </c>
@@ -23800,7 +23799,7 @@
         <v>0.244699921113925</v>
       </c>
     </row>
-    <row r="297" spans="1:13" hidden="1">
+    <row r="297" spans="1:13">
       <c r="A297" t="s">
         <v>601</v>
       </c>
@@ -23841,7 +23840,7 @@
         <v>0.33267002382879901</v>
       </c>
     </row>
-    <row r="298" spans="1:13" hidden="1">
+    <row r="298" spans="1:13">
       <c r="A298" t="s">
         <v>603</v>
       </c>
@@ -23882,7 +23881,7 @@
         <v>0.76188077278663002</v>
       </c>
     </row>
-    <row r="299" spans="1:13" hidden="1">
+    <row r="299" spans="1:13">
       <c r="A299" t="s">
         <v>605</v>
       </c>
@@ -23923,7 +23922,7 @@
         <v>0.554556465270447</v>
       </c>
     </row>
-    <row r="300" spans="1:13" hidden="1">
+    <row r="300" spans="1:13">
       <c r="A300" t="s">
         <v>607</v>
       </c>
@@ -23964,7 +23963,7 @@
         <v>0.35301964681628401</v>
       </c>
     </row>
-    <row r="301" spans="1:13" hidden="1">
+    <row r="301" spans="1:13">
       <c r="A301" t="s">
         <v>609</v>
       </c>
@@ -24005,7 +24004,7 @@
         <v>0.38375385550833202</v>
       </c>
     </row>
-    <row r="302" spans="1:13" hidden="1">
+    <row r="302" spans="1:13">
       <c r="A302" t="s">
         <v>611</v>
       </c>
@@ -24046,7 +24045,7 @@
         <v>-0.14986122523381801</v>
       </c>
     </row>
-    <row r="303" spans="1:13" hidden="1">
+    <row r="303" spans="1:13">
       <c r="A303" t="s">
         <v>613</v>
       </c>
@@ -24087,7 +24086,7 @@
         <v>-0.171180214495467</v>
       </c>
     </row>
-    <row r="304" spans="1:13" hidden="1">
+    <row r="304" spans="1:13">
       <c r="A304" t="s">
         <v>615</v>
       </c>
@@ -24128,7 +24127,7 @@
         <v>-0.37277311125908003</v>
       </c>
     </row>
-    <row r="305" spans="1:13" hidden="1">
+    <row r="305" spans="1:13">
       <c r="A305" t="s">
         <v>617</v>
       </c>
@@ -24169,7 +24168,7 @@
         <v>0.15677416354176499</v>
       </c>
     </row>
-    <row r="306" spans="1:13" hidden="1">
+    <row r="306" spans="1:13">
       <c r="A306" t="s">
         <v>619</v>
       </c>
@@ -24210,7 +24209,7 @@
         <v>-0.38108169074501902</v>
       </c>
     </row>
-    <row r="307" spans="1:13" hidden="1">
+    <row r="307" spans="1:13">
       <c r="A307" t="s">
         <v>621</v>
       </c>
@@ -24251,7 +24250,7 @@
         <v>-1.53156187062841</v>
       </c>
     </row>
-    <row r="308" spans="1:13" hidden="1">
+    <row r="308" spans="1:13">
       <c r="A308" t="s">
         <v>623</v>
       </c>
@@ -24292,7 +24291,7 @@
         <v>0.17726283243926499</v>
       </c>
     </row>
-    <row r="309" spans="1:13" hidden="1">
+    <row r="309" spans="1:13">
       <c r="A309" t="s">
         <v>625</v>
       </c>
@@ -24333,7 +24332,7 @@
         <v>-0.231295242931013</v>
       </c>
     </row>
-    <row r="310" spans="1:13" hidden="1">
+    <row r="310" spans="1:13">
       <c r="A310" t="s">
         <v>627</v>
       </c>
@@ -24374,7 +24373,7 @@
         <v>-0.85236570319181204</v>
       </c>
     </row>
-    <row r="311" spans="1:13" hidden="1">
+    <row r="311" spans="1:13">
       <c r="A311" t="s">
         <v>629</v>
       </c>
@@ -24415,7 +24414,7 @@
         <v>0.24318405902406201</v>
       </c>
     </row>
-    <row r="312" spans="1:13" hidden="1">
+    <row r="312" spans="1:13">
       <c r="A312" t="s">
         <v>631</v>
       </c>
@@ -24456,7 +24455,7 @@
         <v>4.3847078663806001E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:13" hidden="1">
+    <row r="313" spans="1:13">
       <c r="A313" t="s">
         <v>633</v>
       </c>
@@ -24497,7 +24496,7 @@
         <v>0.44942622653431802</v>
       </c>
     </row>
-    <row r="314" spans="1:13" hidden="1">
+    <row r="314" spans="1:13">
       <c r="A314" t="s">
         <v>635</v>
       </c>
@@ -24538,7 +24537,7 @@
         <v>6.7065909396333306E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:13" hidden="1">
+    <row r="315" spans="1:13">
       <c r="A315" t="s">
         <v>637</v>
       </c>
@@ -24579,7 +24578,7 @@
         <v>7.6468855904370803E-2</v>
       </c>
     </row>
-    <row r="316" spans="1:13" hidden="1">
+    <row r="316" spans="1:13">
       <c r="A316" t="s">
         <v>639</v>
       </c>
@@ -24620,7 +24619,7 @@
         <v>-0.128188240819504</v>
       </c>
     </row>
-    <row r="317" spans="1:13" hidden="1">
+    <row r="317" spans="1:13">
       <c r="A317" t="s">
         <v>641</v>
       </c>
@@ -24661,7 +24660,7 @@
         <v>-0.46550767567395301</v>
       </c>
     </row>
-    <row r="318" spans="1:13" hidden="1">
+    <row r="318" spans="1:13">
       <c r="A318" t="s">
         <v>643</v>
       </c>
@@ -24702,7 +24701,7 @@
         <v>-0.121755955802412</v>
       </c>
     </row>
-    <row r="319" spans="1:13" hidden="1">
+    <row r="319" spans="1:13">
       <c r="A319" t="s">
         <v>645</v>
       </c>
@@ -24743,7 +24742,7 @@
         <v>-0.18163913595700201</v>
       </c>
     </row>
-    <row r="320" spans="1:13" hidden="1">
+    <row r="320" spans="1:13">
       <c r="A320" t="s">
         <v>647</v>
       </c>
@@ -24784,7 +24783,7 @@
         <v>-0.15732569918660899</v>
       </c>
     </row>
-    <row r="321" spans="1:13" hidden="1">
+    <row r="321" spans="1:13">
       <c r="A321" t="s">
         <v>649</v>
       </c>
@@ -24825,7 +24824,7 @@
         <v>-0.492347808085845</v>
       </c>
     </row>
-    <row r="322" spans="1:13" hidden="1">
+    <row r="322" spans="1:13">
       <c r="A322" t="s">
         <v>651</v>
       </c>
@@ -24866,7 +24865,7 @@
         <v>-0.66622632754434696</v>
       </c>
     </row>
-    <row r="323" spans="1:13" hidden="1">
+    <row r="323" spans="1:13">
       <c r="A323" t="s">
         <v>653</v>
       </c>
@@ -24907,7 +24906,7 @@
         <v>-0.81481531700837895</v>
       </c>
     </row>
-    <row r="324" spans="1:13" hidden="1">
+    <row r="324" spans="1:13">
       <c r="A324" t="s">
         <v>655</v>
       </c>
@@ -24948,7 +24947,7 @@
         <v>0.63908608915328802</v>
       </c>
     </row>
-    <row r="325" spans="1:13" hidden="1">
+    <row r="325" spans="1:13">
       <c r="A325" t="s">
         <v>657</v>
       </c>
@@ -24989,7 +24988,7 @@
         <v>0.69251656826477503</v>
       </c>
     </row>
-    <row r="326" spans="1:13" hidden="1">
+    <row r="326" spans="1:13">
       <c r="A326" t="s">
         <v>659</v>
       </c>
@@ -25030,7 +25029,7 @@
         <v>0.239505171266502</v>
       </c>
     </row>
-    <row r="327" spans="1:13" hidden="1">
+    <row r="327" spans="1:13">
       <c r="A327" t="s">
         <v>661</v>
       </c>
@@ -25071,7 +25070,7 @@
         <v>8.4303247333187406E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:13" hidden="1">
+    <row r="328" spans="1:13">
       <c r="A328" t="s">
         <v>663</v>
       </c>
@@ -25112,7 +25111,7 @@
         <v>0.22980125267542401</v>
       </c>
     </row>
-    <row r="329" spans="1:13" hidden="1">
+    <row r="329" spans="1:13">
       <c r="A329" t="s">
         <v>665</v>
       </c>
@@ -25153,7 +25152,7 @@
         <v>-0.45983712089422302</v>
       </c>
     </row>
-    <row r="330" spans="1:13" hidden="1">
+    <row r="330" spans="1:13">
       <c r="A330" t="s">
         <v>667</v>
       </c>
@@ -25194,7 +25193,7 @@
         <v>-0.300203927393627</v>
       </c>
     </row>
-    <row r="331" spans="1:13" hidden="1">
+    <row r="331" spans="1:13">
       <c r="A331" t="s">
         <v>669</v>
       </c>
@@ -25235,7 +25234,7 @@
         <v>-0.18061479654587101</v>
       </c>
     </row>
-    <row r="332" spans="1:13" hidden="1">
+    <row r="332" spans="1:13">
       <c r="A332" t="s">
         <v>671</v>
       </c>
@@ -25276,7 +25275,7 @@
         <v>0.123348032852028</v>
       </c>
     </row>
-    <row r="333" spans="1:13" hidden="1">
+    <row r="333" spans="1:13">
       <c r="A333" t="s">
         <v>673</v>
       </c>
@@ -25317,7 +25316,7 @@
         <v>-4.4286535620538102E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:13" hidden="1">
+    <row r="334" spans="1:13">
       <c r="A334" t="s">
         <v>675</v>
       </c>
@@ -25358,7 +25357,7 @@
         <v>0.86445985271493198</v>
       </c>
     </row>
-    <row r="335" spans="1:13" hidden="1">
+    <row r="335" spans="1:13">
       <c r="A335" t="s">
         <v>677</v>
       </c>
@@ -25399,7 +25398,7 @@
         <v>-0.61216756727482902</v>
       </c>
     </row>
-    <row r="336" spans="1:13" hidden="1">
+    <row r="336" spans="1:13">
       <c r="A336" t="s">
         <v>679</v>
       </c>
@@ -25440,7 +25439,7 @@
         <v>0.43991107698558601</v>
       </c>
     </row>
-    <row r="337" spans="1:13" hidden="1">
+    <row r="337" spans="1:13">
       <c r="A337" t="s">
         <v>681</v>
       </c>
@@ -25481,7 +25480,7 @@
         <v>0.36659491687272699</v>
       </c>
     </row>
-    <row r="338" spans="1:13" hidden="1">
+    <row r="338" spans="1:13">
       <c r="A338" t="s">
         <v>683</v>
       </c>
@@ -25522,7 +25521,7 @@
         <v>-0.19479404947843901</v>
       </c>
     </row>
-    <row r="339" spans="1:13" hidden="1">
+    <row r="339" spans="1:13">
       <c r="A339" t="s">
         <v>685</v>
       </c>
@@ -25563,7 +25562,7 @@
         <v>-8.8512640400702794E-2</v>
       </c>
     </row>
-    <row r="340" spans="1:13" hidden="1">
+    <row r="340" spans="1:13">
       <c r="A340" t="s">
         <v>687</v>
       </c>
@@ -25604,7 +25603,7 @@
         <v>0.214509358797594</v>
       </c>
     </row>
-    <row r="341" spans="1:13" hidden="1">
+    <row r="341" spans="1:13">
       <c r="A341" t="s">
         <v>689</v>
       </c>
@@ -25645,7 +25644,7 @@
         <v>7.0303918074475599E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:13" hidden="1">
+    <row r="342" spans="1:13">
       <c r="A342" t="s">
         <v>691</v>
       </c>
@@ -25686,7 +25685,7 @@
         <v>2.1406007232836099E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:13" hidden="1">
+    <row r="343" spans="1:13">
       <c r="A343" t="s">
         <v>693</v>
       </c>
@@ -25727,7 +25726,7 @@
         <v>-0.34053282951434599</v>
       </c>
     </row>
-    <row r="344" spans="1:13" hidden="1">
+    <row r="344" spans="1:13">
       <c r="A344" t="s">
         <v>695</v>
       </c>
@@ -25768,7 +25767,7 @@
         <v>-1.5126693647235301</v>
       </c>
     </row>
-    <row r="345" spans="1:13" hidden="1">
+    <row r="345" spans="1:13">
       <c r="A345" t="s">
         <v>697</v>
       </c>
@@ -25809,7 +25808,7 @@
         <v>-9.46066108404921E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:13" hidden="1">
+    <row r="346" spans="1:13">
       <c r="A346" t="s">
         <v>699</v>
       </c>
@@ -25850,7 +25849,7 @@
         <v>-1.0941723684767399</v>
       </c>
     </row>
-    <row r="347" spans="1:13" hidden="1">
+    <row r="347" spans="1:13">
       <c r="A347" t="s">
         <v>701</v>
       </c>
@@ -25891,7 +25890,7 @@
         <v>0.39989677881797497</v>
       </c>
     </row>
-    <row r="348" spans="1:13" hidden="1">
+    <row r="348" spans="1:13">
       <c r="A348" t="s">
         <v>703</v>
       </c>
@@ -25932,7 +25931,7 @@
         <v>0.128501585574644</v>
       </c>
     </row>
-    <row r="349" spans="1:13" hidden="1">
+    <row r="349" spans="1:13">
       <c r="A349" t="s">
         <v>705</v>
       </c>
@@ -25973,7 +25972,7 @@
         <v>-0.27028981658960499</v>
       </c>
     </row>
-    <row r="350" spans="1:13" hidden="1">
+    <row r="350" spans="1:13">
       <c r="A350" t="s">
         <v>707</v>
       </c>
@@ -26014,7 +26013,7 @@
         <v>0.25830991617375898</v>
       </c>
     </row>
-    <row r="351" spans="1:13" hidden="1">
+    <row r="351" spans="1:13">
       <c r="A351" t="s">
         <v>709</v>
       </c>
@@ -26055,7 +26054,7 @@
         <v>1.29563044028253</v>
       </c>
     </row>
-    <row r="352" spans="1:13" hidden="1">
+    <row r="352" spans="1:13">
       <c r="A352" t="s">
         <v>711</v>
       </c>
@@ -26096,7 +26095,7 @@
         <v>1.0289683882784899</v>
       </c>
     </row>
-    <row r="353" spans="1:13" hidden="1">
+    <row r="353" spans="1:13">
       <c r="A353" t="s">
         <v>713</v>
       </c>
@@ -26137,7 +26136,7 @@
         <v>-1.00125226597528E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:13" hidden="1">
+    <row r="354" spans="1:13">
       <c r="A354" t="s">
         <v>715</v>
       </c>
@@ -26178,7 +26177,7 @@
         <v>1.1814538252804301</v>
       </c>
     </row>
-    <row r="355" spans="1:13" hidden="1">
+    <row r="355" spans="1:13">
       <c r="A355" t="s">
         <v>717</v>
       </c>
@@ -26219,7 +26218,7 @@
         <v>-0.100084408092799</v>
       </c>
     </row>
-    <row r="356" spans="1:13" hidden="1">
+    <row r="356" spans="1:13">
       <c r="A356" t="s">
         <v>719</v>
       </c>
@@ -26260,7 +26259,7 @@
         <v>-0.27733743175305497</v>
       </c>
     </row>
-    <row r="357" spans="1:13" hidden="1">
+    <row r="357" spans="1:13">
       <c r="A357" t="s">
         <v>721</v>
       </c>
@@ -26301,7 +26300,7 @@
         <v>-0.361086708780883</v>
       </c>
     </row>
-    <row r="358" spans="1:13" hidden="1">
+    <row r="358" spans="1:13">
       <c r="A358" t="s">
         <v>723</v>
       </c>
@@ -26342,7 +26341,7 @@
         <v>-0.80473644730751104</v>
       </c>
     </row>
-    <row r="359" spans="1:13" hidden="1">
+    <row r="359" spans="1:13">
       <c r="A359" t="s">
         <v>725</v>
       </c>
@@ -26383,7 +26382,7 @@
         <v>-0.122541701301107</v>
       </c>
     </row>
-    <row r="360" spans="1:13" hidden="1">
+    <row r="360" spans="1:13">
       <c r="A360" t="s">
         <v>727</v>
       </c>
@@ -26424,7 +26423,7 @@
         <v>-0.60031176271518405</v>
       </c>
     </row>
-    <row r="361" spans="1:13" hidden="1">
+    <row r="361" spans="1:13">
       <c r="A361" t="s">
         <v>729</v>
       </c>
@@ -26465,7 +26464,7 @@
         <v>0.36499090768910802</v>
       </c>
     </row>
-    <row r="362" spans="1:13" hidden="1">
+    <row r="362" spans="1:13">
       <c r="A362" t="s">
         <v>731</v>
       </c>
@@ -26506,7 +26505,7 @@
         <v>1.7095049610020401</v>
       </c>
     </row>
-    <row r="363" spans="1:13" hidden="1">
+    <row r="363" spans="1:13">
       <c r="A363" t="s">
         <v>733</v>
       </c>
@@ -26547,7 +26546,7 @@
         <v>0.15204383819866599</v>
       </c>
     </row>
-    <row r="364" spans="1:13" hidden="1">
+    <row r="364" spans="1:13">
       <c r="A364" t="s">
         <v>735</v>
       </c>
@@ -26588,7 +26587,7 @@
         <v>0.27871422020491898</v>
       </c>
     </row>
-    <row r="365" spans="1:13" hidden="1">
+    <row r="365" spans="1:13">
       <c r="A365" t="s">
         <v>737</v>
       </c>
@@ -26629,7 +26628,7 @@
         <v>-0.67037201936259705</v>
       </c>
     </row>
-    <row r="366" spans="1:13" hidden="1">
+    <row r="366" spans="1:13">
       <c r="A366" t="s">
         <v>739</v>
       </c>
@@ -26670,7 +26669,7 @@
         <v>-0.76618975689721402</v>
       </c>
     </row>
-    <row r="367" spans="1:13" hidden="1">
+    <row r="367" spans="1:13">
       <c r="A367" t="s">
         <v>741</v>
       </c>
@@ -26711,7 +26710,7 @@
         <v>-1.50740727129521</v>
       </c>
     </row>
-    <row r="368" spans="1:13" hidden="1">
+    <row r="368" spans="1:13">
       <c r="A368" t="s">
         <v>743</v>
       </c>
@@ -26752,7 +26751,7 @@
         <v>-0.134940046270944</v>
       </c>
     </row>
-    <row r="369" spans="1:13" hidden="1">
+    <row r="369" spans="1:13">
       <c r="A369" t="s">
         <v>745</v>
       </c>
@@ -26793,7 +26792,7 @@
         <v>-1.22729273121847</v>
       </c>
     </row>
-    <row r="370" spans="1:13" hidden="1">
+    <row r="370" spans="1:13">
       <c r="A370" t="s">
         <v>747</v>
       </c>
@@ -26834,7 +26833,7 @@
         <v>-1.1834121208663599</v>
       </c>
     </row>
-    <row r="371" spans="1:13" hidden="1">
+    <row r="371" spans="1:13">
       <c r="A371" t="s">
         <v>749</v>
       </c>
@@ -26875,7 +26874,7 @@
         <v>-0.23109393290904101</v>
       </c>
     </row>
-    <row r="372" spans="1:13" hidden="1">
+    <row r="372" spans="1:13">
       <c r="A372" t="s">
         <v>751</v>
       </c>
@@ -26916,7 +26915,7 @@
         <v>-1.19888429888432</v>
       </c>
     </row>
-    <row r="373" spans="1:13" hidden="1">
+    <row r="373" spans="1:13">
       <c r="A373" t="s">
         <v>753</v>
       </c>
@@ -26957,7 +26956,7 @@
         <v>0.93486280942344102</v>
       </c>
     </row>
-    <row r="374" spans="1:13" hidden="1">
+    <row r="374" spans="1:13">
       <c r="A374" t="s">
         <v>755</v>
       </c>
@@ -26998,7 +26997,7 @@
         <v>0.17242853151253101</v>
       </c>
     </row>
-    <row r="375" spans="1:13" hidden="1">
+    <row r="375" spans="1:13">
       <c r="A375" t="s">
         <v>757</v>
       </c>
@@ -27039,7 +27038,7 @@
         <v>-0.45662974408842499</v>
       </c>
     </row>
-    <row r="376" spans="1:13" hidden="1">
+    <row r="376" spans="1:13">
       <c r="A376" t="s">
         <v>759</v>
       </c>
@@ -27080,7 +27079,7 @@
         <v>0.258720325521067</v>
       </c>
     </row>
-    <row r="377" spans="1:13" hidden="1">
+    <row r="377" spans="1:13">
       <c r="A377" t="s">
         <v>761</v>
       </c>
@@ -27121,7 +27120,7 @@
         <v>-0.81184101918135299</v>
       </c>
     </row>
-    <row r="378" spans="1:13" hidden="1">
+    <row r="378" spans="1:13">
       <c r="A378" t="s">
         <v>763</v>
       </c>
@@ -27162,7 +27161,7 @@
         <v>0.24231498237843799</v>
       </c>
     </row>
-    <row r="379" spans="1:13" hidden="1">
+    <row r="379" spans="1:13">
       <c r="A379" t="s">
         <v>765</v>
       </c>
@@ -27203,7 +27202,7 @@
         <v>0.91084271757452295</v>
       </c>
     </row>
-    <row r="380" spans="1:13" hidden="1">
+    <row r="380" spans="1:13">
       <c r="A380" t="s">
         <v>767</v>
       </c>
@@ -27244,7 +27243,7 @@
         <v>-1.24601376906634</v>
       </c>
     </row>
-    <row r="381" spans="1:13" hidden="1">
+    <row r="381" spans="1:13">
       <c r="A381" t="s">
         <v>769</v>
       </c>
@@ -27285,7 +27284,7 @@
         <v>0.103305299544204</v>
       </c>
     </row>
-    <row r="382" spans="1:13" hidden="1">
+    <row r="382" spans="1:13">
       <c r="A382" t="s">
         <v>771</v>
       </c>
@@ -27326,7 +27325,7 @@
         <v>-1.7988370776747999</v>
       </c>
     </row>
-    <row r="383" spans="1:13" hidden="1">
+    <row r="383" spans="1:13">
       <c r="A383" t="s">
         <v>773</v>
       </c>
@@ -27367,7 +27366,7 @@
         <v>0.473470214525611</v>
       </c>
     </row>
-    <row r="384" spans="1:13" hidden="1">
+    <row r="384" spans="1:13">
       <c r="A384" t="s">
         <v>775</v>
       </c>
@@ -27408,7 +27407,7 @@
         <v>-0.47585641997026901</v>
       </c>
     </row>
-    <row r="385" spans="1:13" hidden="1">
+    <row r="385" spans="1:13">
       <c r="A385" t="s">
         <v>777</v>
       </c>
@@ -27449,7 +27448,7 @@
         <v>0.51448030562810299</v>
       </c>
     </row>
-    <row r="386" spans="1:13" hidden="1">
+    <row r="386" spans="1:13">
       <c r="A386" t="s">
         <v>779</v>
       </c>
@@ -27490,7 +27489,7 @@
         <v>0.59372930682564096</v>
       </c>
     </row>
-    <row r="387" spans="1:13" hidden="1">
+    <row r="387" spans="1:13">
       <c r="A387" t="s">
         <v>781</v>
       </c>
@@ -27531,7 +27530,7 @@
         <v>-0.68015162806106699</v>
       </c>
     </row>
-    <row r="388" spans="1:13" hidden="1">
+    <row r="388" spans="1:13">
       <c r="A388" t="s">
         <v>783</v>
       </c>
@@ -27572,7 +27571,7 @@
         <v>1.41764309317189</v>
       </c>
     </row>
-    <row r="389" spans="1:13" hidden="1">
+    <row r="389" spans="1:13">
       <c r="A389" t="s">
         <v>785</v>
       </c>
@@ -27613,7 +27612,7 @@
         <v>1.83660356237485E-2</v>
       </c>
     </row>
-    <row r="390" spans="1:13" hidden="1">
+    <row r="390" spans="1:13">
       <c r="A390" t="s">
         <v>787</v>
       </c>
@@ -27654,7 +27653,7 @@
         <v>1.9463441177677401</v>
       </c>
     </row>
-    <row r="391" spans="1:13" hidden="1">
+    <row r="391" spans="1:13">
       <c r="A391" t="s">
         <v>789</v>
       </c>
@@ -27695,7 +27694,7 @@
         <v>0.28939155835645802</v>
       </c>
     </row>
-    <row r="392" spans="1:13" hidden="1">
+    <row r="392" spans="1:13">
       <c r="A392" t="s">
         <v>791</v>
       </c>
@@ -27736,7 +27735,7 @@
         <v>-0.795387580694218</v>
       </c>
     </row>
-    <row r="393" spans="1:13" hidden="1">
+    <row r="393" spans="1:13">
       <c r="A393" t="s">
         <v>793</v>
       </c>
@@ -27777,7 +27776,7 @@
         <v>-0.74978391517613896</v>
       </c>
     </row>
-    <row r="394" spans="1:13" hidden="1">
+    <row r="394" spans="1:13">
       <c r="A394" t="s">
         <v>795</v>
       </c>
@@ -27818,7 +27817,7 @@
         <v>-1.2111529149178299</v>
       </c>
     </row>
-    <row r="395" spans="1:13" hidden="1">
+    <row r="395" spans="1:13">
       <c r="A395" t="s">
         <v>797</v>
       </c>
@@ -27859,7 +27858,7 @@
         <v>0.237231293534613</v>
       </c>
     </row>
-    <row r="396" spans="1:13" hidden="1">
+    <row r="396" spans="1:13">
       <c r="A396" t="s">
         <v>799</v>
       </c>
@@ -27900,7 +27899,7 @@
         <v>1.0927328090331301</v>
       </c>
     </row>
-    <row r="397" spans="1:13" hidden="1">
+    <row r="397" spans="1:13">
       <c r="A397" t="s">
         <v>801</v>
       </c>
@@ -27941,7 +27940,7 @@
         <v>0.53501731439268296</v>
       </c>
     </row>
-    <row r="398" spans="1:13" hidden="1">
+    <row r="398" spans="1:13">
       <c r="A398" t="s">
         <v>803</v>
       </c>
@@ -27982,7 +27981,7 @@
         <v>1.5117192852770001</v>
       </c>
     </row>
-    <row r="399" spans="1:13" hidden="1">
+    <row r="399" spans="1:13">
       <c r="A399" t="s">
         <v>805</v>
       </c>
@@ -28023,7 +28022,7 @@
         <v>1.1018417018358899</v>
       </c>
     </row>
-    <row r="400" spans="1:13" hidden="1">
+    <row r="400" spans="1:13">
       <c r="A400" t="s">
         <v>807</v>
       </c>
@@ -28064,7 +28063,7 @@
         <v>0.46569463946082501</v>
       </c>
     </row>
-    <row r="401" spans="1:13" hidden="1">
+    <row r="401" spans="1:13">
       <c r="A401" t="s">
         <v>809</v>
       </c>
@@ -28105,7 +28104,7 @@
         <v>0.77195432482104798</v>
       </c>
     </row>
-    <row r="402" spans="1:13" hidden="1">
+    <row r="402" spans="1:13">
       <c r="A402" t="s">
         <v>811</v>
       </c>
@@ -28146,7 +28145,7 @@
         <v>1.6579454103643601</v>
       </c>
     </row>
-    <row r="403" spans="1:13" hidden="1">
+    <row r="403" spans="1:13">
       <c r="A403" t="s">
         <v>813</v>
       </c>
@@ -28187,7 +28186,7 @@
         <v>0.52726579243895999</v>
       </c>
     </row>
-    <row r="404" spans="1:13" hidden="1">
+    <row r="404" spans="1:13">
       <c r="A404" t="s">
         <v>815</v>
       </c>
@@ -28228,7 +28227,7 @@
         <v>2.7359797147734202E-2</v>
       </c>
     </row>
-    <row r="405" spans="1:13" hidden="1">
+    <row r="405" spans="1:13">
       <c r="A405" t="s">
         <v>817</v>
       </c>
@@ -28269,7 +28268,7 @@
         <v>1.19986717505735</v>
       </c>
     </row>
-    <row r="406" spans="1:13" hidden="1">
+    <row r="406" spans="1:13">
       <c r="A406" t="s">
         <v>819</v>
       </c>
@@ -28310,7 +28309,7 @@
         <v>0.45019682067836803</v>
       </c>
     </row>
-    <row r="407" spans="1:13" hidden="1">
+    <row r="407" spans="1:13">
       <c r="A407" t="s">
         <v>821</v>
       </c>
@@ -28351,7 +28350,7 @@
         <v>0.99321597404234996</v>
       </c>
     </row>
-    <row r="408" spans="1:13" hidden="1">
+    <row r="408" spans="1:13">
       <c r="A408" t="s">
         <v>823</v>
       </c>
@@ -28392,7 +28391,7 @@
         <v>0.67330002368702702</v>
       </c>
     </row>
-    <row r="409" spans="1:13" hidden="1">
+    <row r="409" spans="1:13">
       <c r="A409" t="s">
         <v>825</v>
       </c>
@@ -28433,7 +28432,7 @@
         <v>-1.13154262378828</v>
       </c>
     </row>
-    <row r="410" spans="1:13" hidden="1">
+    <row r="410" spans="1:13">
       <c r="A410" t="s">
         <v>827</v>
       </c>
@@ -28474,7 +28473,7 @@
         <v>1.1345556105244501</v>
       </c>
     </row>
-    <row r="411" spans="1:13" hidden="1">
+    <row r="411" spans="1:13">
       <c r="A411" t="s">
         <v>829</v>
       </c>
@@ -28515,7 +28514,7 @@
         <v>-1.48653008590599</v>
       </c>
     </row>
-    <row r="412" spans="1:13" hidden="1">
+    <row r="412" spans="1:13">
       <c r="A412" t="s">
         <v>831</v>
       </c>
@@ -28556,7 +28555,7 @@
         <v>0.118481753367601</v>
       </c>
     </row>
-    <row r="413" spans="1:13" hidden="1">
+    <row r="413" spans="1:13">
       <c r="A413" t="s">
         <v>833</v>
       </c>
@@ -28597,7 +28596,7 @@
         <v>-0.117514792948714</v>
       </c>
     </row>
-    <row r="414" spans="1:13" hidden="1">
+    <row r="414" spans="1:13">
       <c r="A414" t="s">
         <v>835</v>
       </c>
@@ -28638,7 +28637,7 @@
         <v>-1.33631255404511</v>
       </c>
     </row>
-    <row r="415" spans="1:13" hidden="1">
+    <row r="415" spans="1:13">
       <c r="A415" t="s">
         <v>837</v>
       </c>
@@ -28679,7 +28678,7 @@
         <v>-0.74773581589062399</v>
       </c>
     </row>
-    <row r="416" spans="1:13" hidden="1">
+    <row r="416" spans="1:13">
       <c r="A416" t="s">
         <v>839</v>
       </c>
@@ -28720,7 +28719,7 @@
         <v>0.25024567374220602</v>
       </c>
     </row>
-    <row r="417" spans="1:13" hidden="1">
+    <row r="417" spans="1:13">
       <c r="A417" t="s">
         <v>841</v>
       </c>
@@ -28761,7 +28760,7 @@
         <v>-0.40643585234365298</v>
       </c>
     </row>
-    <row r="418" spans="1:13" hidden="1">
+    <row r="418" spans="1:13">
       <c r="A418" t="s">
         <v>843</v>
       </c>
@@ -28802,7 +28801,7 @@
         <v>-2.2477633930910099</v>
       </c>
     </row>
-    <row r="419" spans="1:13" hidden="1">
+    <row r="419" spans="1:13">
       <c r="A419" t="s">
         <v>845</v>
       </c>
@@ -28843,7 +28842,7 @@
         <v>0.61181260049850505</v>
       </c>
     </row>
-    <row r="420" spans="1:13" hidden="1">
+    <row r="420" spans="1:13">
       <c r="A420" t="s">
         <v>847</v>
       </c>
@@ -28884,7 +28883,7 @@
         <v>0.62509311682059698</v>
       </c>
     </row>
-    <row r="421" spans="1:13" hidden="1">
+    <row r="421" spans="1:13">
       <c r="A421" t="s">
         <v>849</v>
       </c>
@@ -28925,7 +28924,7 @@
         <v>0.95634471758607498</v>
       </c>
     </row>
-    <row r="422" spans="1:13" hidden="1">
+    <row r="422" spans="1:13">
       <c r="A422" t="s">
         <v>851</v>
       </c>
@@ -28966,7 +28965,7 @@
         <v>0.62194407384205597</v>
       </c>
     </row>
-    <row r="423" spans="1:13" hidden="1">
+    <row r="423" spans="1:13">
       <c r="A423" t="s">
         <v>853</v>
       </c>
@@ -29007,7 +29006,7 @@
         <v>-0.69113539042748595</v>
       </c>
     </row>
-    <row r="424" spans="1:13" hidden="1">
+    <row r="424" spans="1:13">
       <c r="A424" t="s">
         <v>855</v>
       </c>
@@ -29048,7 +29047,7 @@
         <v>-2.1827686233436001</v>
       </c>
     </row>
-    <row r="425" spans="1:13" hidden="1">
+    <row r="425" spans="1:13">
       <c r="A425" t="s">
         <v>857</v>
       </c>
@@ -29089,7 +29088,7 @@
         <v>-0.329026251946473</v>
       </c>
     </row>
-    <row r="426" spans="1:13" hidden="1">
+    <row r="426" spans="1:13">
       <c r="A426" t="s">
         <v>859</v>
       </c>
@@ -29130,7 +29129,7 @@
         <v>-0.13602847435022</v>
       </c>
     </row>
-    <row r="427" spans="1:13" hidden="1">
+    <row r="427" spans="1:13">
       <c r="A427" t="s">
         <v>861</v>
       </c>
@@ -29171,7 +29170,7 @@
         <v>2.2318179938146501</v>
       </c>
     </row>
-    <row r="428" spans="1:13" hidden="1">
+    <row r="428" spans="1:13">
       <c r="A428" t="s">
         <v>863</v>
       </c>
@@ -29212,7 +29211,7 @@
         <v>-1.16165489635196</v>
       </c>
     </row>
-    <row r="429" spans="1:13" hidden="1">
+    <row r="429" spans="1:13">
       <c r="A429" t="s">
         <v>865</v>
       </c>
@@ -29253,7 +29252,7 @@
         <v>-0.461819075377641</v>
       </c>
     </row>
-    <row r="430" spans="1:13" hidden="1">
+    <row r="430" spans="1:13">
       <c r="A430" t="s">
         <v>867</v>
       </c>
@@ -29294,7 +29293,7 @@
         <v>-1.5605117225605401E-2</v>
       </c>
     </row>
-    <row r="431" spans="1:13" hidden="1">
+    <row r="431" spans="1:13">
       <c r="A431" t="s">
         <v>869</v>
       </c>
@@ -29335,7 +29334,7 @@
         <v>1.01680264913358</v>
       </c>
     </row>
-    <row r="432" spans="1:13" hidden="1">
+    <row r="432" spans="1:13">
       <c r="A432" t="s">
         <v>871</v>
       </c>
@@ -29376,7 +29375,7 @@
         <v>1.60789139338646</v>
       </c>
     </row>
-    <row r="433" spans="1:13" hidden="1">
+    <row r="433" spans="1:13">
       <c r="A433" t="s">
         <v>873</v>
       </c>
@@ -29417,7 +29416,7 @@
         <v>-1.4568991635825499</v>
       </c>
     </row>
-    <row r="434" spans="1:13" hidden="1">
+    <row r="434" spans="1:13">
       <c r="A434" t="s">
         <v>875</v>
       </c>
@@ -29458,7 +29457,7 @@
         <v>0.42773397597899199</v>
       </c>
     </row>
-    <row r="435" spans="1:13" hidden="1">
+    <row r="435" spans="1:13">
       <c r="A435" t="s">
         <v>877</v>
       </c>
@@ -29499,7 +29498,7 @@
         <v>1.88347313726085</v>
       </c>
     </row>
-    <row r="436" spans="1:13" hidden="1">
+    <row r="436" spans="1:13">
       <c r="A436" t="s">
         <v>879</v>
       </c>
@@ -29540,7 +29539,7 @@
         <v>0.56104909816194903</v>
       </c>
     </row>
-    <row r="437" spans="1:13" hidden="1">
+    <row r="437" spans="1:13">
       <c r="A437" t="s">
         <v>881</v>
       </c>
@@ -29581,7 +29580,7 @@
         <v>-0.99854048011290897</v>
       </c>
     </row>
-    <row r="438" spans="1:13" hidden="1">
+    <row r="438" spans="1:13">
       <c r="A438" t="s">
         <v>883</v>
       </c>
@@ -29622,7 +29621,7 @@
         <v>-0.84077361782613502</v>
       </c>
     </row>
-    <row r="439" spans="1:13" hidden="1">
+    <row r="439" spans="1:13">
       <c r="A439" t="s">
         <v>885</v>
       </c>
@@ -29663,7 +29662,7 @@
         <v>0.14066349908233799</v>
       </c>
     </row>
-    <row r="440" spans="1:13" hidden="1">
+    <row r="440" spans="1:13">
       <c r="A440" t="s">
         <v>887</v>
       </c>
@@ -46799,406 +46798,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M847">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="SL18-UCONN-1"/>
-        <filter val="SL18-UCONN-10"/>
-        <filter val="SL18-UCONN-100"/>
-        <filter val="SL18-UCONN-101"/>
-        <filter val="SL18-UCONN-102"/>
-        <filter val="SL18-UCONN-103"/>
-        <filter val="SL18-UCONN-104"/>
-        <filter val="SL18-UCONN-105"/>
-        <filter val="SL18-UCONN-106"/>
-        <filter val="SL18-UCONN-11"/>
-        <filter val="SL18-UCONN-111"/>
-        <filter val="SL18-UCONN-113"/>
-        <filter val="SL18-UCONN-115"/>
-        <filter val="SL18-UCONN-116"/>
-        <filter val="SL18-UCONN-12"/>
-        <filter val="SL18-UCONN-120"/>
-        <filter val="SL18-UCONN-121"/>
-        <filter val="SL18-UCONN-122"/>
-        <filter val="SL18-UCONN-123"/>
-        <filter val="SL18-UCONN-124"/>
-        <filter val="SL18-UCONN-125"/>
-        <filter val="SL18-UCONN-126"/>
-        <filter val="SL18-UCONN-127"/>
-        <filter val="SL18-UCONN-128"/>
-        <filter val="SL18-UCONN-129"/>
-        <filter val="SL18-UCONN-13"/>
-        <filter val="SL18-UCONN-131"/>
-        <filter val="SL18-UCONN-132"/>
-        <filter val="SL18-UCONN-133"/>
-        <filter val="SL18-UCONN-134"/>
-        <filter val="SL18-UCONN-136"/>
-        <filter val="SL18-UCONN-137"/>
-        <filter val="SL18-UCONN-138"/>
-        <filter val="SL18-UCONN-139"/>
-        <filter val="SL18-UCONN-14"/>
-        <filter val="SL18-UCONN-140"/>
-        <filter val="SL18-UCONN-141"/>
-        <filter val="SL18-UCONN-142"/>
-        <filter val="SL18-UCONN-143"/>
-        <filter val="SL18-UCONN-145"/>
-        <filter val="SL18-UCONN-146"/>
-        <filter val="SL18-UCONN-147"/>
-        <filter val="SL18-UCONN-148"/>
-        <filter val="SL18-UCONN-149"/>
-        <filter val="SL18-UCONN-15"/>
-        <filter val="SL18-UCONN-150"/>
-        <filter val="SL18-UCONN-151"/>
-        <filter val="SL18-UCONN-152"/>
-        <filter val="SL18-UCONN-153"/>
-        <filter val="SL18-UCONN-154"/>
-        <filter val="SL18-UCONN-155"/>
-        <filter val="SL18-UCONN-156"/>
-        <filter val="SL18-UCONN-157"/>
-        <filter val="SL18-UCONN-158"/>
-        <filter val="SL18-UCONN-159"/>
-        <filter val="SL18-UCONN-16"/>
-        <filter val="SL18-UCONN-160"/>
-        <filter val="SL18-UCONN-161"/>
-        <filter val="SL18-UCONN-162"/>
-        <filter val="SL18-UCONN-163"/>
-        <filter val="SL18-UCONN-164"/>
-        <filter val="SL18-UCONN-166"/>
-        <filter val="SL18-UCONN-167"/>
-        <filter val="SL18-UCONN-168"/>
-        <filter val="SL18-UCONN-169"/>
-        <filter val="SL18-UCONN-17"/>
-        <filter val="SL18-UCONN-170"/>
-        <filter val="SL18-UCONN-171"/>
-        <filter val="SL18-UCONN-172"/>
-        <filter val="SL18-UCONN-173"/>
-        <filter val="SL18-UCONN-174"/>
-        <filter val="SL18-UCONN-175"/>
-        <filter val="SL18-UCONN-176"/>
-        <filter val="SL18-UCONN-177"/>
-        <filter val="SL18-UCONN-178"/>
-        <filter val="SL18-UCONN-18"/>
-        <filter val="SL18-UCONN-180"/>
-        <filter val="SL18-UCONN-181"/>
-        <filter val="SL18-UCONN-182"/>
-        <filter val="SL18-UCONN-183"/>
-        <filter val="SL18-UCONN-184"/>
-        <filter val="SL18-UCONN-186"/>
-        <filter val="SL18-UCONN-187"/>
-        <filter val="SL18-UCONN-188"/>
-        <filter val="SL18-UCONN-189"/>
-        <filter val="SL18-UCONN-19"/>
-        <filter val="SL18-UCONN-190"/>
-        <filter val="SL18-UCONN-191"/>
-        <filter val="SL18-UCONN-192"/>
-        <filter val="SL18-UCONN-193"/>
-        <filter val="SL18-UCONN-194"/>
-        <filter val="SL18-UCONN-195"/>
-        <filter val="SL18-UCONN-196"/>
-        <filter val="SL18-UCONN-197"/>
-        <filter val="SL18-UCONN-198"/>
-        <filter val="SL18-UCONN-199"/>
-        <filter val="SL18-UCONN-2"/>
-        <filter val="SL18-UCONN-20"/>
-        <filter val="SL18-UCONN-201"/>
-        <filter val="SL18-UCONN-21"/>
-        <filter val="SL18-UCONN-22"/>
-        <filter val="SL18-UCONN-23"/>
-        <filter val="SL18-UCONN-24"/>
-        <filter val="SL18-UCONN-25"/>
-        <filter val="SL18-UCONN-26"/>
-        <filter val="SL18-UCONN-27"/>
-        <filter val="SL18-UCONN-28"/>
-        <filter val="SL18-UCONN-29"/>
-        <filter val="SL18-UCONN-3"/>
-        <filter val="SL18-UCONN-30"/>
-        <filter val="SL18-UCONN-31"/>
-        <filter val="SL18-UCONN-32"/>
-        <filter val="SL18-UCONN-33"/>
-        <filter val="SL18-UCONN-34"/>
-        <filter val="SL18-UCONN-35"/>
-        <filter val="SL18-UCONN-36"/>
-        <filter val="SL18-UCONN-37"/>
-        <filter val="SL18-UCONN-38"/>
-        <filter val="SL18-UCONN-39"/>
-        <filter val="SL18-UCONN-4"/>
-        <filter val="SL18-UCONN-40"/>
-        <filter val="SL18-UCONN-41"/>
-        <filter val="SL18-UCONN-42"/>
-        <filter val="SL18-UCONN-43"/>
-        <filter val="SL18-UCONN-44"/>
-        <filter val="SL18-UCONN-45"/>
-        <filter val="SL18-UCONN-46"/>
-        <filter val="SL18-UCONN-47"/>
-        <filter val="SL18-UCONN-48"/>
-        <filter val="SL18-UCONN-49"/>
-        <filter val="SL18-UCONN-5"/>
-        <filter val="SL18-UCONN-50"/>
-        <filter val="SL18-UCONN-51"/>
-        <filter val="SL18-UCONN-52"/>
-        <filter val="SL18-UCONN-53"/>
-        <filter val="SL18-UCONN-54"/>
-        <filter val="SL18-UCONN-55"/>
-        <filter val="SL18-UCONN-56"/>
-        <filter val="SL18-UCONN-57"/>
-        <filter val="SL18-UCONN-58"/>
-        <filter val="SL18-UCONN-59"/>
-        <filter val="SL18-UCONN-6"/>
-        <filter val="SL18-UCONN-60"/>
-        <filter val="SL18-UCONN-62"/>
-        <filter val="SL18-UCONN-63"/>
-        <filter val="SL18-UCONN-67"/>
-        <filter val="SL18-UCONN-71"/>
-        <filter val="SL18-UCONN-72"/>
-        <filter val="SL18-UCONN-73"/>
-        <filter val="SL18-UCONN-75"/>
-        <filter val="SL18-UCONN-76"/>
-        <filter val="SL18-UCONN-77"/>
-        <filter val="SL18-UCONN-78"/>
-        <filter val="SL18-UCONN-79"/>
-        <filter val="SL18-UCONN-8"/>
-        <filter val="SL18-UCONN-80"/>
-        <filter val="SL18-UCONN-81"/>
-        <filter val="SL18-UCONN-82"/>
-        <filter val="SL18-UCONN-84"/>
-        <filter val="SL18-UCONN-85"/>
-        <filter val="SL18-UCONN-86"/>
-        <filter val="SL18-UCONN-87"/>
-        <filter val="SL18-UCONN-88"/>
-        <filter val="SL18-UCONN-9"/>
-        <filter val="SL18-UCONN-94"/>
-        <filter val="SL18-UCONN-95"/>
-        <filter val="SL18-UCONN-96"/>
-        <filter val="SL18-UCONN-97"/>
-        <filter val="SL18-UCONN-98"/>
-        <filter val="SL18-UCONN-99"/>
-        <filter val="SL19-UCONN-S1"/>
-        <filter val="SL19-UCONN-S10"/>
-        <filter val="SL19-UCONN-S100"/>
-        <filter val="SL19-UCONN-S101"/>
-        <filter val="SL19-UCONN-S102"/>
-        <filter val="SL19-UCONN-S103"/>
-        <filter val="SL19-UCONN-S104"/>
-        <filter val="SL19-UCONN-S106"/>
-        <filter val="SL19-UCONN-S107"/>
-        <filter val="SL19-UCONN-S109"/>
-        <filter val="SL19-UCONN-S11"/>
-        <filter val="SL19-UCONN-S110"/>
-        <filter val="SL19-UCONN-S111"/>
-        <filter val="SL19-UCONN-S112"/>
-        <filter val="SL19-UCONN-S113"/>
-        <filter val="SL19-UCONN-S114"/>
-        <filter val="SL19-UCONN-S116"/>
-        <filter val="SL19-UCONN-S117"/>
-        <filter val="SL19-UCONN-S118"/>
-        <filter val="SL19-UCONN-S119"/>
-        <filter val="SL19-UCONN-S12"/>
-        <filter val="SL19-UCONN-S121"/>
-        <filter val="SL19-UCONN-S122"/>
-        <filter val="SL19-UCONN-S123"/>
-        <filter val="SL19-UCONN-S125"/>
-        <filter val="SL19-UCONN-S127"/>
-        <filter val="SL19-UCONN-S128"/>
-        <filter val="SL19-UCONN-S129"/>
-        <filter val="SL19-UCONN-S13"/>
-        <filter val="SL19-UCONN-S130"/>
-        <filter val="SL19-UCONN-S131"/>
-        <filter val="SL19-UCONN-S132"/>
-        <filter val="SL19-UCONN-S133"/>
-        <filter val="SL19-UCONN-S134"/>
-        <filter val="SL19-UCONN-S135"/>
-        <filter val="SL19-UCONN-S136"/>
-        <filter val="SL19-UCONN-S137"/>
-        <filter val="SL19-UCONN-S139"/>
-        <filter val="SL19-UCONN-S14"/>
-        <filter val="SL19-UCONN-S140"/>
-        <filter val="SL19-UCONN-S141"/>
-        <filter val="SL19-UCONN-S142"/>
-        <filter val="SL19-UCONN-S143"/>
-        <filter val="SL19-UCONN-S144"/>
-        <filter val="SL19-UCONN-S145"/>
-        <filter val="SL19-UCONN-S146"/>
-        <filter val="SL19-UCONN-S147"/>
-        <filter val="SL19-UCONN-S15"/>
-        <filter val="SL19-UCONN-S150"/>
-        <filter val="SL19-UCONN-S151"/>
-        <filter val="SL19-UCONN-S152"/>
-        <filter val="SL19-UCONN-S153"/>
-        <filter val="SL19-UCONN-S154"/>
-        <filter val="SL19-UCONN-S155"/>
-        <filter val="SL19-UCONN-S156"/>
-        <filter val="SL19-UCONN-S157"/>
-        <filter val="SL19-UCONN-S158"/>
-        <filter val="SL19-UCONN-S159"/>
-        <filter val="SL19-UCONN-S160"/>
-        <filter val="SL19-UCONN-S162"/>
-        <filter val="SL19-UCONN-S163"/>
-        <filter val="SL19-UCONN-S167"/>
-        <filter val="SL19-UCONN-S169"/>
-        <filter val="SL19-UCONN-S17"/>
-        <filter val="SL19-UCONN-S170"/>
-        <filter val="SL19-UCONN-S172"/>
-        <filter val="SL19-UCONN-S173"/>
-        <filter val="SL19-UCONN-S174"/>
-        <filter val="SL19-UCONN-S175"/>
-        <filter val="SL19-UCONN-S176"/>
-        <filter val="SL19-UCONN-S178"/>
-        <filter val="SL19-UCONN-S179"/>
-        <filter val="SL19-UCONN-S180"/>
-        <filter val="SL19-UCONN-S182"/>
-        <filter val="SL19-UCONN-S185"/>
-        <filter val="SL19-UCONN-S186"/>
-        <filter val="SL19-UCONN-S187"/>
-        <filter val="SL19-UCONN-S188"/>
-        <filter val="SL19-UCONN-S189"/>
-        <filter val="SL19-UCONN-S19"/>
-        <filter val="SL19-UCONN-S190"/>
-        <filter val="SL19-UCONN-S191"/>
-        <filter val="SL19-UCONN-S193"/>
-        <filter val="SL19-UCONN-S194"/>
-        <filter val="SL19-UCONN-S195"/>
-        <filter val="SL19-UCONN-S196"/>
-        <filter val="SL19-UCONN-S197"/>
-        <filter val="SL19-UCONN-S198"/>
-        <filter val="SL19-UCONN-S2"/>
-        <filter val="SL19-UCONN-S20"/>
-        <filter val="SL19-UCONN-S201"/>
-        <filter val="SL19-UCONN-S203"/>
-        <filter val="SL19-UCONN-S205"/>
-        <filter val="SL19-UCONN-S206"/>
-        <filter val="SL19-UCONN-S207"/>
-        <filter val="SL19-UCONN-S208"/>
-        <filter val="SL19-UCONN-S210"/>
-        <filter val="SL19-UCONN-S211"/>
-        <filter val="SL19-UCONN-S212"/>
-        <filter val="SL19-UCONN-S213"/>
-        <filter val="SL19-UCONN-S214"/>
-        <filter val="SL19-UCONN-S215"/>
-        <filter val="SL19-UCONN-S216"/>
-        <filter val="SL19-UCONN-S217"/>
-        <filter val="SL19-UCONN-S218"/>
-        <filter val="SL19-UCONN-S219"/>
-        <filter val="SL19-UCONN-S22"/>
-        <filter val="SL19-UCONN-S220"/>
-        <filter val="SL19-UCONN-S221"/>
-        <filter val="SL19-UCONN-S222"/>
-        <filter val="SL19-UCONN-S223"/>
-        <filter val="SL19-UCONN-S224"/>
-        <filter val="SL19-UCONN-S225"/>
-        <filter val="SL19-UCONN-S226"/>
-        <filter val="SL19-UCONN-S227"/>
-        <filter val="SL19-UCONN-S228"/>
-        <filter val="SL19-UCONN-S229"/>
-        <filter val="SL19-UCONN-S23"/>
-        <filter val="SL19-UCONN-S230"/>
-        <filter val="SL19-UCONN-S231"/>
-        <filter val="SL19-UCONN-S232"/>
-        <filter val="SL19-UCONN-S233"/>
-        <filter val="SL19-UCONN-S234"/>
-        <filter val="SL19-UCONN-S235"/>
-        <filter val="SL19-UCONN-S236"/>
-        <filter val="SL19-UCONN-S237"/>
-        <filter val="SL19-UCONN-S24"/>
-        <filter val="SL19-UCONN-S240"/>
-        <filter val="SL19-UCONN-S241"/>
-        <filter val="SL19-UCONN-S242"/>
-        <filter val="SL19-UCONN-S244"/>
-        <filter val="SL19-UCONN-S245"/>
-        <filter val="SL19-UCONN-S246"/>
-        <filter val="SL19-UCONN-S248"/>
-        <filter val="SL19-UCONN-S249"/>
-        <filter val="SL19-UCONN-S25"/>
-        <filter val="SL19-UCONN-S250"/>
-        <filter val="SL19-UCONN-S251"/>
-        <filter val="SL19-UCONN-S253"/>
-        <filter val="SL19-UCONN-S254"/>
-        <filter val="SL19-UCONN-S255"/>
-        <filter val="SL19-UCONN-S256"/>
-        <filter val="SL19-UCONN-S257"/>
-        <filter val="SL19-UCONN-S258"/>
-        <filter val="SL19-UCONN-S259"/>
-        <filter val="SL19-UCONN-S26"/>
-        <filter val="SL19-UCONN-S260"/>
-        <filter val="SL19-UCONN-S261"/>
-        <filter val="SL19-UCONN-S262"/>
-        <filter val="SL19-UCONN-S263"/>
-        <filter val="SL19-UCONN-S264"/>
-        <filter val="SL19-UCONN-S265"/>
-        <filter val="SL19-UCONN-S266"/>
-        <filter val="SL19-UCONN-S267"/>
-        <filter val="SL19-UCONN-S268"/>
-        <filter val="SL19-UCONN-S269"/>
-        <filter val="SL19-UCONN-S27"/>
-        <filter val="SL19-UCONN-S270"/>
-        <filter val="SL19-UCONN-S271"/>
-        <filter val="SL19-UCONN-S272"/>
-        <filter val="SL19-UCONN-S274"/>
-        <filter val="SL19-UCONN-S277"/>
-        <filter val="SL19-UCONN-S278"/>
-        <filter val="SL19-UCONN-S279"/>
-        <filter val="SL19-UCONN-S28"/>
-        <filter val="SL19-UCONN-S280"/>
-        <filter val="SL19-UCONN-S283"/>
-        <filter val="SL19-UCONN-S285"/>
-        <filter val="SL19-UCONN-S286"/>
-        <filter val="SL19-UCONN-S287"/>
-        <filter val="SL19-UCONN-S288"/>
-        <filter val="SL19-UCONN-S289"/>
-        <filter val="SL19-UCONN-S29"/>
-        <filter val="SL19-UCONN-S290"/>
-        <filter val="SL19-UCONN-S30"/>
-        <filter val="SL19-UCONN-S31"/>
-        <filter val="SL19-UCONN-S32"/>
-        <filter val="SL19-UCONN-S33"/>
-        <filter val="SL19-UCONN-S34"/>
-        <filter val="SL19-UCONN-S35"/>
-        <filter val="SL19-UCONN-S36"/>
-        <filter val="SL19-UCONN-S42"/>
-        <filter val="SL19-UCONN-S44"/>
-        <filter val="SL19-UCONN-S45"/>
-        <filter val="SL19-UCONN-S46"/>
-        <filter val="SL19-UCONN-S47"/>
-        <filter val="SL19-UCONN-S48"/>
-        <filter val="SL19-UCONN-S5"/>
-        <filter val="SL19-UCONN-S53"/>
-        <filter val="SL19-UCONN-S56"/>
-        <filter val="SL19-UCONN-S57"/>
-        <filter val="SL19-UCONN-S58"/>
-        <filter val="SL19-UCONN-S6"/>
-        <filter val="SL19-UCONN-S63"/>
-        <filter val="SL19-UCONN-S64"/>
-        <filter val="SL19-UCONN-S65"/>
-        <filter val="SL19-UCONN-S66"/>
-        <filter val="SL19-UCONN-S67"/>
-        <filter val="SL19-UCONN-S69"/>
-        <filter val="SL19-UCONN-S7"/>
-        <filter val="SL19-UCONN-S70"/>
-        <filter val="SL19-UCONN-S72"/>
-        <filter val="SL19-UCONN-S74"/>
-        <filter val="SL19-UCONN-S75"/>
-        <filter val="SL19-UCONN-S76"/>
-        <filter val="SL19-UCONN-S77"/>
-        <filter val="SL19-UCONN-S78"/>
-        <filter val="SL19-UCONN-S79"/>
-        <filter val="SL19-UCONN-S8"/>
-        <filter val="SL19-UCONN-S85"/>
-        <filter val="SL19-UCONN-S86"/>
-        <filter val="SL19-UCONN-S87"/>
-        <filter val="SL19-UCONN-S88"/>
-        <filter val="SL19-UCONN-S89"/>
-        <filter val="SL19-UCONN-S90"/>
-        <filter val="SL19-UCONN-S91"/>
-        <filter val="SL19-UCONN-S92"/>
-        <filter val="SL19-UCONN-S93"/>
-        <filter val="SL19-UCONN-S94"/>
-        <filter val="SL19-UCONN-S95"/>
-        <filter val="SL19-UCONN-S96"/>
-        <filter val="SL19-UCONN-S97"/>
-        <filter val="SL19-UCONN-S98"/>
-        <filter val="SL19-UCONN-S99"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -59210,7 +58809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N408"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
